--- a/analises_dos_dados_preliminares/Jogador que escolhe aleatoriamente/3-5-2 - Escolhas Algoritmos - Jogador Que Escolhe Aleatorio - Base Completa.xlsx
+++ b/analises_dos_dados_preliminares/Jogador que escolhe aleatoriamente/3-5-2 - Escolhas Algoritmos - Jogador Que Escolhe Aleatorio - Base Completa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\Documents\Diogo Pé\CEFET\TCC\Codigos\sportsAnalytics\analises_dos_dados_preliminares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpcrj\OneDrive\Área de Trabalho\Faculdade\TCC_code\sportsAnalytics\analises_dos_dados_preliminares\Jogador que escolhe aleatoriamente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47744497-2A18-4812-8FCF-394BF68D4CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE5C270-3616-4FAE-87BC-5A6A1B3BB9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="29" activeTab="37" xr2:uid="{FCE826C4-9F25-4A22-BADC-C872D1D1AAC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="32" activeTab="38" xr2:uid="{FCE826C4-9F25-4A22-BADC-C872D1D1AAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="rodada 01" sheetId="106" r:id="rId1"/>
@@ -646,7 +646,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -948,20 +948,20 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="13.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="32.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="13.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" style="5" customWidth="1"/>
     <col min="8" max="8" width="23" style="5" customWidth="1"/>
-    <col min="9" max="13" width="9.109375" style="5"/>
-    <col min="14" max="16384" width="9.109375" style="2"/>
+    <col min="9" max="13" width="9.140625" style="5"/>
+    <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>106</v>
       </c>
@@ -1031,7 +1031,7 @@
       <c r="AC2" s="7"/>
       <c r="AD2" s="7"/>
     </row>
-    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>107</v>
       </c>
@@ -1060,7 +1060,7 @@
       <c r="AC3" s="7"/>
       <c r="AD3" s="7"/>
     </row>
-    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>11</v>
       </c>
@@ -1087,7 +1087,7 @@
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
     </row>
-    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1111,7 +1111,7 @@
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
     </row>
-    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>112</v>
       </c>
@@ -1135,7 +1135,7 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
     </row>
-    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>108</v>
       </c>
@@ -1159,7 +1159,7 @@
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
     </row>
-    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>109</v>
       </c>
@@ -1183,7 +1183,7 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
     </row>
-    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>110</v>
       </c>
@@ -1207,7 +1207,7 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
     </row>
-    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>43</v>
       </c>
@@ -1231,7 +1231,7 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
     </row>
-    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>111</v>
       </c>
@@ -1255,7 +1255,7 @@
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
     </row>
-    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>37</v>
       </c>
@@ -1279,7 +1279,7 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
     </row>
-    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>113</v>
       </c>
@@ -1303,7 +1303,7 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
     </row>
-    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1311,7 +1311,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:30" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>38</v>
       </c>
@@ -1320,10 +1320,10 @@
         <v>46.17</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" s="11">
         <f>SUM(F2:F13,E17)</f>
         <v>46.17</v>
@@ -1337,7 +1337,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -1349,7 +1349,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -1371,20 +1371,20 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="12.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" style="2" customWidth="1"/>
-    <col min="9" max="10" width="13.33203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="32.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="12.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="2" customWidth="1"/>
+    <col min="9" max="10" width="13.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="32.42578125" style="5" customWidth="1"/>
     <col min="12" max="12" width="23" style="5" customWidth="1"/>
-    <col min="13" max="17" width="9.109375" style="5"/>
-    <col min="18" max="16384" width="9.109375" style="2"/>
+    <col min="13" max="17" width="9.140625" style="5"/>
+    <col min="18" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>131</v>
       </c>
@@ -1455,7 +1455,7 @@
       <c r="AG2" s="7"/>
       <c r="AH2" s="7"/>
     </row>
-    <row r="3" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>136</v>
       </c>
@@ -1485,7 +1485,7 @@
       <c r="AG3" s="7"/>
       <c r="AH3" s="7"/>
     </row>
-    <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -1509,7 +1509,7 @@
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
     </row>
-    <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
@@ -1533,7 +1533,7 @@
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
     </row>
-    <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>74</v>
       </c>
@@ -1557,7 +1557,7 @@
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
     </row>
-    <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>137</v>
       </c>
@@ -1581,7 +1581,7 @@
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
     </row>
-    <row r="8" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>71</v>
       </c>
@@ -1608,7 +1608,7 @@
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
     </row>
-    <row r="9" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>90</v>
       </c>
@@ -1632,7 +1632,7 @@
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
     </row>
-    <row r="10" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>95</v>
       </c>
@@ -1656,7 +1656,7 @@
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
     </row>
-    <row r="11" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>138</v>
       </c>
@@ -1680,7 +1680,7 @@
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
     </row>
-    <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>87</v>
       </c>
@@ -1704,7 +1704,7 @@
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
     </row>
-    <row r="13" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>135</v>
       </c>
@@ -1728,7 +1728,7 @@
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
     </row>
-    <row r="14" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1740,7 +1740,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:34" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>38</v>
       </c>
@@ -1749,10 +1749,10 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C17" s="11">
         <f>SUM(F2:F13,E17)</f>
         <v>29.759999999999998</v>
@@ -1766,7 +1766,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -1782,7 +1782,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -1804,20 +1804,20 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="12.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" style="2" customWidth="1"/>
-    <col min="10" max="11" width="13.33203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="32.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="12.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="2" customWidth="1"/>
+    <col min="10" max="11" width="13.28515625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="32.42578125" style="5" customWidth="1"/>
     <col min="13" max="13" width="23" style="5" customWidth="1"/>
-    <col min="14" max="18" width="9.109375" style="5"/>
-    <col min="19" max="16384" width="9.109375" style="2"/>
+    <col min="14" max="18" width="9.140625" style="5"/>
+    <col min="19" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>34</v>
       </c>
@@ -1885,7 +1885,7 @@
       <c r="AH2" s="7"/>
       <c r="AI2" s="7"/>
     </row>
-    <row r="3" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>47</v>
       </c>
@@ -1912,7 +1912,7 @@
       <c r="AH3" s="7"/>
       <c r="AI3" s="7"/>
     </row>
-    <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -1933,7 +1933,7 @@
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
     </row>
-    <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>73</v>
       </c>
@@ -1954,7 +1954,7 @@
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
     </row>
-    <row r="6" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>74</v>
       </c>
@@ -1975,7 +1975,7 @@
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
     </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>45</v>
       </c>
@@ -1996,7 +1996,7 @@
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
     </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>64</v>
       </c>
@@ -2017,7 +2017,7 @@
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
     </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>90</v>
       </c>
@@ -2038,7 +2038,7 @@
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>95</v>
       </c>
@@ -2059,7 +2059,7 @@
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>75</v>
       </c>
@@ -2080,7 +2080,7 @@
       <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
@@ -2104,7 +2104,7 @@
       <c r="AH12" s="1"/>
       <c r="AI12" s="1"/>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>68</v>
       </c>
@@ -2125,7 +2125,7 @@
       <c r="AH13" s="1"/>
       <c r="AI13" s="1"/>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2138,7 +2138,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:35" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>38</v>
       </c>
@@ -2147,10 +2147,10 @@
         <v>52.01</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C17" s="11">
         <f>SUM(F2:F13,E17)</f>
         <v>72.319999999999993</v>
@@ -2164,7 +2164,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -2181,7 +2181,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -2203,20 +2203,20 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="12.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" style="2" customWidth="1"/>
-    <col min="10" max="11" width="13.33203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="32.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="12.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="2" customWidth="1"/>
+    <col min="10" max="11" width="13.28515625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="32.42578125" style="5" customWidth="1"/>
     <col min="13" max="13" width="23" style="5" customWidth="1"/>
-    <col min="14" max="18" width="9.109375" style="5"/>
-    <col min="19" max="16384" width="9.109375" style="2"/>
+    <col min="14" max="18" width="9.140625" style="5"/>
+    <col min="19" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>131</v>
       </c>
@@ -2287,7 +2287,7 @@
       <c r="AH2" s="7"/>
       <c r="AI2" s="7"/>
     </row>
-    <row r="3" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>120</v>
       </c>
@@ -2317,7 +2317,7 @@
       <c r="AH3" s="7"/>
       <c r="AI3" s="7"/>
     </row>
-    <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>117</v>
       </c>
@@ -2341,7 +2341,7 @@
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
     </row>
-    <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>139</v>
       </c>
@@ -2365,7 +2365,7 @@
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
     </row>
-    <row r="6" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>74</v>
       </c>
@@ -2389,7 +2389,7 @@
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
     </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>137</v>
       </c>
@@ -2413,7 +2413,7 @@
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
     </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>90</v>
       </c>
@@ -2437,7 +2437,7 @@
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
     </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>140</v>
       </c>
@@ -2461,7 +2461,7 @@
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>95</v>
       </c>
@@ -2485,7 +2485,7 @@
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>75</v>
       </c>
@@ -2509,7 +2509,7 @@
       <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>59</v>
       </c>
@@ -2536,7 +2536,7 @@
       <c r="AH12" s="1"/>
       <c r="AI12" s="1"/>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>135</v>
       </c>
@@ -2560,7 +2560,7 @@
       <c r="AH13" s="1"/>
       <c r="AI13" s="1"/>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2573,7 +2573,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:35" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>38</v>
       </c>
@@ -2582,10 +2582,10 @@
         <v>14.030000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C17" s="11">
         <f>SUM(F2:F13,E17)</f>
         <v>16.55</v>
@@ -2599,7 +2599,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -2616,7 +2616,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -2638,20 +2638,20 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="12.33203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" style="2" customWidth="1"/>
-    <col min="11" max="12" width="13.33203125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="32.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="12.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="2" customWidth="1"/>
+    <col min="11" max="12" width="13.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="32.42578125" style="5" customWidth="1"/>
     <col min="14" max="14" width="23" style="5" customWidth="1"/>
-    <col min="15" max="19" width="9.109375" style="5"/>
-    <col min="20" max="16384" width="9.109375" style="2"/>
+    <col min="15" max="19" width="9.140625" style="5"/>
+    <col min="20" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>34</v>
       </c>
@@ -2719,7 +2719,7 @@
       <c r="AI2" s="7"/>
       <c r="AJ2" s="7"/>
     </row>
-    <row r="3" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>141</v>
       </c>
@@ -2746,7 +2746,7 @@
       <c r="AI3" s="7"/>
       <c r="AJ3" s="7"/>
     </row>
-    <row r="4" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -2767,7 +2767,7 @@
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
     </row>
-    <row r="5" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>73</v>
       </c>
@@ -2788,7 +2788,7 @@
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
     </row>
-    <row r="6" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>74</v>
       </c>
@@ -2809,7 +2809,7 @@
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
     </row>
-    <row r="7" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>64</v>
       </c>
@@ -2830,7 +2830,7 @@
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
     </row>
-    <row r="8" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>76</v>
       </c>
@@ -2854,7 +2854,7 @@
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
     </row>
-    <row r="9" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>93</v>
       </c>
@@ -2875,7 +2875,7 @@
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
     </row>
-    <row r="10" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>95</v>
       </c>
@@ -2896,7 +2896,7 @@
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
     </row>
-    <row r="11" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>75</v>
       </c>
@@ -2917,7 +2917,7 @@
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
     </row>
-    <row r="12" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -2938,7 +2938,7 @@
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
     </row>
-    <row r="13" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>68</v>
       </c>
@@ -2959,7 +2959,7 @@
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
     </row>
-    <row r="14" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2973,7 +2973,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:36" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>38</v>
       </c>
@@ -2982,10 +2982,10 @@
         <v>5.07</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C17" s="11">
         <f>SUM(F2:F13,E17)</f>
         <v>62.91</v>
@@ -2999,7 +2999,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -3017,7 +3017,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -3039,20 +3039,20 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="12.33203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" style="2" customWidth="1"/>
-    <col min="12" max="13" width="13.33203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="32.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="12.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="2" customWidth="1"/>
+    <col min="12" max="13" width="13.28515625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="32.42578125" style="5" customWidth="1"/>
     <col min="15" max="15" width="23" style="5" customWidth="1"/>
-    <col min="16" max="20" width="9.109375" style="5"/>
-    <col min="21" max="16384" width="9.109375" style="2"/>
+    <col min="16" max="20" width="9.140625" style="5"/>
+    <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>34</v>
       </c>
@@ -3120,7 +3120,7 @@
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
     </row>
-    <row r="3" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>142</v>
       </c>
@@ -3147,7 +3147,7 @@
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
     </row>
-    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -3168,7 +3168,7 @@
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
     </row>
-    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>73</v>
       </c>
@@ -3189,7 +3189,7 @@
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
     </row>
-    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>45</v>
       </c>
@@ -3210,7 +3210,7 @@
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
     </row>
-    <row r="7" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -3234,7 +3234,7 @@
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
     </row>
-    <row r="8" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -3255,7 +3255,7 @@
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1"/>
     </row>
-    <row r="9" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>48</v>
       </c>
@@ -3276,7 +3276,7 @@
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
     </row>
-    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>77</v>
       </c>
@@ -3297,7 +3297,7 @@
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
     </row>
-    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>102</v>
       </c>
@@ -3318,7 +3318,7 @@
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
     </row>
-    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -3339,7 +3339,7 @@
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
     </row>
-    <row r="13" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>68</v>
       </c>
@@ -3360,7 +3360,7 @@
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
     </row>
-    <row r="14" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -3375,7 +3375,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:37" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>38</v>
       </c>
@@ -3384,10 +3384,10 @@
         <v>55.89</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C17" s="11">
         <f>SUM(F2:F13,E17)</f>
         <v>93.259999999999991</v>
@@ -3401,7 +3401,7 @@
         <v>12.25</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -3420,7 +3420,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -3442,20 +3442,20 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="12.33203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.44140625" style="2" customWidth="1"/>
-    <col min="13" max="14" width="13.33203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="32.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="12.28515625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" style="2" customWidth="1"/>
+    <col min="13" max="14" width="13.28515625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="32.42578125" style="5" customWidth="1"/>
     <col min="16" max="16" width="23" style="5" customWidth="1"/>
-    <col min="17" max="21" width="9.109375" style="5"/>
-    <col min="22" max="16384" width="9.109375" style="2"/>
+    <col min="17" max="21" width="9.140625" style="5"/>
+    <col min="22" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>47</v>
       </c>
@@ -3523,7 +3523,7 @@
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
     </row>
-    <row r="3" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>141</v>
       </c>
@@ -3550,7 +3550,7 @@
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
     </row>
-    <row r="4" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -3571,7 +3571,7 @@
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
     </row>
-    <row r="5" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>73</v>
       </c>
@@ -3592,7 +3592,7 @@
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
     </row>
-    <row r="6" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>74</v>
       </c>
@@ -3613,7 +3613,7 @@
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
     </row>
-    <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>45</v>
       </c>
@@ -3634,7 +3634,7 @@
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
     </row>
-    <row r="8" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>64</v>
       </c>
@@ -3655,7 +3655,7 @@
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
     </row>
-    <row r="9" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>90</v>
       </c>
@@ -3676,7 +3676,7 @@
       <c r="AK9" s="1"/>
       <c r="AL9" s="1"/>
     </row>
-    <row r="10" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>51</v>
       </c>
@@ -3697,7 +3697,7 @@
       <c r="AK10" s="1"/>
       <c r="AL10" s="1"/>
     </row>
-    <row r="11" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>75</v>
       </c>
@@ -3718,7 +3718,7 @@
       <c r="AK11" s="1"/>
       <c r="AL11" s="1"/>
     </row>
-    <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>79</v>
       </c>
@@ -3742,7 +3742,7 @@
       <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
     </row>
-    <row r="13" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>68</v>
       </c>
@@ -3763,7 +3763,7 @@
       <c r="AK13" s="1"/>
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -3779,7 +3779,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:38" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>38</v>
       </c>
@@ -3788,10 +3788,10 @@
         <v>30.279999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C17" s="11">
         <f>SUM(F2:F13,E17)</f>
         <v>61.429999999999993</v>
@@ -3805,7 +3805,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -3825,7 +3825,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -3847,20 +3847,20 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="12.33203125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" style="2" customWidth="1"/>
-    <col min="14" max="15" width="13.33203125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="32.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="12.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="2" customWidth="1"/>
+    <col min="14" max="15" width="13.28515625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="32.42578125" style="5" customWidth="1"/>
     <col min="17" max="17" width="23" style="5" customWidth="1"/>
-    <col min="18" max="22" width="9.109375" style="5"/>
-    <col min="23" max="16384" width="9.109375" style="2"/>
+    <col min="18" max="22" width="9.140625" style="5"/>
+    <col min="23" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>47</v>
       </c>
@@ -3931,7 +3931,7 @@
       <c r="AL2" s="7"/>
       <c r="AM2" s="7"/>
     </row>
-    <row r="3" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>67</v>
       </c>
@@ -3958,7 +3958,7 @@
       <c r="AL3" s="7"/>
       <c r="AM3" s="7"/>
     </row>
-    <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -3979,7 +3979,7 @@
       <c r="AL4" s="1"/>
       <c r="AM4" s="1"/>
     </row>
-    <row r="5" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>73</v>
       </c>
@@ -4000,7 +4000,7 @@
       <c r="AL5" s="1"/>
       <c r="AM5" s="1"/>
     </row>
-    <row r="6" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>74</v>
       </c>
@@ -4021,7 +4021,7 @@
       <c r="AL6" s="1"/>
       <c r="AM6" s="1"/>
     </row>
-    <row r="7" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>45</v>
       </c>
@@ -4042,7 +4042,7 @@
       <c r="AL7" s="1"/>
       <c r="AM7" s="1"/>
     </row>
-    <row r="8" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>50</v>
       </c>
@@ -4063,7 +4063,7 @@
       <c r="AL8" s="1"/>
       <c r="AM8" s="1"/>
     </row>
-    <row r="9" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>64</v>
       </c>
@@ -4084,7 +4084,7 @@
       <c r="AL9" s="1"/>
       <c r="AM9" s="1"/>
     </row>
-    <row r="10" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>95</v>
       </c>
@@ -4105,7 +4105,7 @@
       <c r="AL10" s="1"/>
       <c r="AM10" s="1"/>
     </row>
-    <row r="11" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>79</v>
       </c>
@@ -4126,7 +4126,7 @@
       <c r="AL11" s="1"/>
       <c r="AM11" s="1"/>
     </row>
-    <row r="12" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -4147,7 +4147,7 @@
       <c r="AL12" s="1"/>
       <c r="AM12" s="1"/>
     </row>
-    <row r="13" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>68</v>
       </c>
@@ -4168,7 +4168,7 @@
       <c r="AL13" s="1"/>
       <c r="AM13" s="1"/>
     </row>
-    <row r="14" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -4185,7 +4185,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:39" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>38</v>
       </c>
@@ -4194,10 +4194,10 @@
         <v>9.92</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C17" s="11">
         <f>SUM(F2:F13,E17)</f>
         <v>68.56</v>
@@ -4211,7 +4211,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -4232,7 +4232,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -4254,20 +4254,20 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="12.33203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" style="2" customWidth="1"/>
-    <col min="15" max="16" width="13.33203125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="32.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="12.28515625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" style="2" customWidth="1"/>
+    <col min="15" max="16" width="13.28515625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="32.42578125" style="5" customWidth="1"/>
     <col min="18" max="18" width="23" style="5" customWidth="1"/>
-    <col min="19" max="23" width="9.109375" style="5"/>
-    <col min="24" max="16384" width="9.109375" style="2"/>
+    <col min="19" max="23" width="9.140625" style="5"/>
+    <col min="24" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>34</v>
       </c>
@@ -4335,7 +4335,7 @@
       <c r="AM2" s="7"/>
       <c r="AN2" s="7"/>
     </row>
-    <row r="3" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>47</v>
       </c>
@@ -4362,7 +4362,7 @@
       <c r="AM3" s="7"/>
       <c r="AN3" s="7"/>
     </row>
-    <row r="4" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -4383,7 +4383,7 @@
       <c r="AM4" s="1"/>
       <c r="AN4" s="1"/>
     </row>
-    <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>73</v>
       </c>
@@ -4404,7 +4404,7 @@
       <c r="AM5" s="1"/>
       <c r="AN5" s="1"/>
     </row>
-    <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>50</v>
       </c>
@@ -4425,7 +4425,7 @@
       <c r="AM6" s="1"/>
       <c r="AN6" s="1"/>
     </row>
-    <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>64</v>
       </c>
@@ -4446,7 +4446,7 @@
       <c r="AM7" s="1"/>
       <c r="AN7" s="1"/>
     </row>
-    <row r="8" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>48</v>
       </c>
@@ -4467,7 +4467,7 @@
       <c r="AM8" s="1"/>
       <c r="AN8" s="1"/>
     </row>
-    <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>76</v>
       </c>
@@ -4491,7 +4491,7 @@
       <c r="AM9" s="1"/>
       <c r="AN9" s="1"/>
     </row>
-    <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>95</v>
       </c>
@@ -4512,7 +4512,7 @@
       <c r="AM10" s="1"/>
       <c r="AN10" s="1"/>
     </row>
-    <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>75</v>
       </c>
@@ -4533,7 +4533,7 @@
       <c r="AM11" s="1"/>
       <c r="AN11" s="1"/>
     </row>
-    <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -4554,7 +4554,7 @@
       <c r="AM12" s="1"/>
       <c r="AN12" s="1"/>
     </row>
-    <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>68</v>
       </c>
@@ -4575,7 +4575,7 @@
       <c r="AM13" s="1"/>
       <c r="AN13" s="1"/>
     </row>
-    <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -4593,7 +4593,7 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:40" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>38</v>
       </c>
@@ -4602,10 +4602,10 @@
         <v>3.5700000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C17" s="11">
         <f>SUM(F2:F13,E17)</f>
         <v>71.839999999999989</v>
@@ -4619,7 +4619,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -4641,7 +4641,7 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -4663,20 +4663,20 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="12.33203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="10.44140625" style="2" customWidth="1"/>
-    <col min="16" max="17" width="13.33203125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="32.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="12.28515625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" style="2" customWidth="1"/>
+    <col min="16" max="17" width="13.28515625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="32.42578125" style="5" customWidth="1"/>
     <col min="19" max="19" width="23" style="5" customWidth="1"/>
-    <col min="20" max="24" width="9.109375" style="5"/>
-    <col min="25" max="16384" width="9.109375" style="2"/>
+    <col min="20" max="24" width="9.140625" style="5"/>
+    <col min="25" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>47</v>
       </c>
@@ -4744,7 +4744,7 @@
       <c r="AN2" s="7"/>
       <c r="AO2" s="7"/>
     </row>
-    <row r="3" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>52</v>
       </c>
@@ -4771,7 +4771,7 @@
       <c r="AN3" s="7"/>
       <c r="AO3" s="7"/>
     </row>
-    <row r="4" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>53</v>
       </c>
@@ -4795,7 +4795,7 @@
       <c r="AN4" s="1"/>
       <c r="AO4" s="1"/>
     </row>
-    <row r="5" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>73</v>
       </c>
@@ -4816,7 +4816,7 @@
       <c r="AN5" s="1"/>
       <c r="AO5" s="1"/>
     </row>
-    <row r="6" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -4837,7 +4837,7 @@
       <c r="AN6" s="1"/>
       <c r="AO6" s="1"/>
     </row>
-    <row r="7" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>74</v>
       </c>
@@ -4858,7 +4858,7 @@
       <c r="AN7" s="1"/>
       <c r="AO7" s="1"/>
     </row>
-    <row r="8" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>50</v>
       </c>
@@ -4879,7 +4879,7 @@
       <c r="AN8" s="1"/>
       <c r="AO8" s="1"/>
     </row>
-    <row r="9" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>64</v>
       </c>
@@ -4900,7 +4900,7 @@
       <c r="AN9" s="1"/>
       <c r="AO9" s="1"/>
     </row>
-    <row r="10" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>54</v>
       </c>
@@ -4921,7 +4921,7 @@
       <c r="AN10" s="1"/>
       <c r="AO10" s="1"/>
     </row>
-    <row r="11" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -4942,7 +4942,7 @@
       <c r="AN11" s="1"/>
       <c r="AO11" s="1"/>
     </row>
-    <row r="12" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>68</v>
       </c>
@@ -4963,7 +4963,7 @@
       <c r="AN12" s="1"/>
       <c r="AO12" s="1"/>
     </row>
-    <row r="13" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
@@ -4984,7 +4984,7 @@
       <c r="AN13" s="1"/>
       <c r="AO13" s="1"/>
     </row>
-    <row r="14" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -5003,7 +5003,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:41" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:41" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>38</v>
       </c>
@@ -5012,10 +5012,10 @@
         <v>51.69</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C17" s="11">
         <f>SUM(F2:F13,E17)</f>
         <v>75.59</v>
@@ -5029,7 +5029,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -5052,7 +5052,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -5074,20 +5074,20 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="15" width="12.33203125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="10.44140625" style="2" customWidth="1"/>
-    <col min="17" max="18" width="13.33203125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="32.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="15" width="12.28515625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" style="2" customWidth="1"/>
+    <col min="17" max="18" width="13.28515625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="32.42578125" style="5" customWidth="1"/>
     <col min="20" max="20" width="23" style="5" customWidth="1"/>
-    <col min="21" max="25" width="9.109375" style="5"/>
-    <col min="26" max="16384" width="9.109375" style="2"/>
+    <col min="21" max="25" width="9.140625" style="5"/>
+    <col min="26" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>47</v>
       </c>
@@ -5155,7 +5155,7 @@
       <c r="AO2" s="7"/>
       <c r="AP2" s="7"/>
     </row>
-    <row r="3" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>55</v>
       </c>
@@ -5182,7 +5182,7 @@
       <c r="AO3" s="7"/>
       <c r="AP3" s="7"/>
     </row>
-    <row r="4" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>56</v>
       </c>
@@ -5206,7 +5206,7 @@
       <c r="AO4" s="1"/>
       <c r="AP4" s="1"/>
     </row>
-    <row r="5" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>57</v>
       </c>
@@ -5227,7 +5227,7 @@
       <c r="AO5" s="1"/>
       <c r="AP5" s="1"/>
     </row>
-    <row r="6" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -5248,7 +5248,7 @@
       <c r="AO6" s="1"/>
       <c r="AP6" s="1"/>
     </row>
-    <row r="7" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>81</v>
       </c>
@@ -5269,7 +5269,7 @@
       <c r="AO7" s="1"/>
       <c r="AP7" s="1"/>
     </row>
-    <row r="8" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>50</v>
       </c>
@@ -5290,7 +5290,7 @@
       <c r="AO8" s="1"/>
       <c r="AP8" s="1"/>
     </row>
-    <row r="9" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -5311,7 +5311,7 @@
       <c r="AO9" s="1"/>
       <c r="AP9" s="1"/>
     </row>
-    <row r="10" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>54</v>
       </c>
@@ -5332,7 +5332,7 @@
       <c r="AO10" s="1"/>
       <c r="AP10" s="1"/>
     </row>
-    <row r="11" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -5353,7 +5353,7 @@
       <c r="AO11" s="1"/>
       <c r="AP11" s="1"/>
     </row>
-    <row r="12" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>68</v>
       </c>
@@ -5374,7 +5374,7 @@
       <c r="AO12" s="1"/>
       <c r="AP12" s="1"/>
     </row>
-    <row r="13" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
@@ -5395,7 +5395,7 @@
       <c r="AO13" s="1"/>
       <c r="AP13" s="1"/>
     </row>
-    <row r="14" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -5415,7 +5415,7 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:42" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:42" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>38</v>
       </c>
@@ -5424,10 +5424,10 @@
         <v>50.93</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C17" s="11">
         <f>SUM(F2:F13,E17)</f>
         <v>86.4</v>
@@ -5441,7 +5441,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -5465,7 +5465,7 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -5487,20 +5487,20 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="13.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="32.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="13.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" style="5" customWidth="1"/>
     <col min="8" max="8" width="23" style="5" customWidth="1"/>
-    <col min="9" max="13" width="9.109375" style="5"/>
-    <col min="14" max="16384" width="9.109375" style="2"/>
+    <col min="9" max="13" width="9.140625" style="5"/>
+    <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>98</v>
       </c>
@@ -5571,7 +5571,7 @@
       <c r="AC2" s="7"/>
       <c r="AD2" s="7"/>
     </row>
-    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>105</v>
       </c>
@@ -5601,7 +5601,7 @@
       <c r="AC3" s="7"/>
       <c r="AD3" s="7"/>
     </row>
-    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>14</v>
       </c>
@@ -5625,7 +5625,7 @@
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
     </row>
-    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>99</v>
       </c>
@@ -5649,7 +5649,7 @@
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
     </row>
-    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>41</v>
       </c>
@@ -5673,7 +5673,7 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
     </row>
-    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>100</v>
       </c>
@@ -5700,7 +5700,7 @@
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
     </row>
-    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>114</v>
       </c>
@@ -5724,7 +5724,7 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
     </row>
-    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>115</v>
       </c>
@@ -5748,7 +5748,7 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
     </row>
-    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>43</v>
       </c>
@@ -5772,7 +5772,7 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
     </row>
-    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>37</v>
       </c>
@@ -5796,7 +5796,7 @@
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
     </row>
-    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>101</v>
       </c>
@@ -5820,7 +5820,7 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
     </row>
-    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>104</v>
       </c>
@@ -5844,7 +5844,7 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
     </row>
-    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -5852,7 +5852,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:30" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>38</v>
       </c>
@@ -5861,10 +5861,10 @@
         <v>72.539999999999992</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" s="11">
         <f>SUM(F2:F13,E17)</f>
         <v>87.399999999999991</v>
@@ -5878,7 +5878,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -5890,7 +5890,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -5912,20 +5912,20 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="15" width="12.33203125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="10.44140625" style="2" customWidth="1"/>
-    <col min="17" max="18" width="13.33203125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="32.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="15" width="12.28515625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" style="2" customWidth="1"/>
+    <col min="17" max="18" width="13.28515625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="32.42578125" style="5" customWidth="1"/>
     <col min="20" max="20" width="23" style="5" customWidth="1"/>
-    <col min="21" max="25" width="9.109375" style="5"/>
-    <col min="26" max="16384" width="9.109375" style="2"/>
+    <col min="21" max="25" width="9.140625" style="5"/>
+    <col min="26" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5966,7 +5966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>141</v>
       </c>
@@ -5996,7 +5996,7 @@
       <c r="AO2" s="7"/>
       <c r="AP2" s="7"/>
     </row>
-    <row r="3" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>35</v>
       </c>
@@ -6026,7 +6026,7 @@
       <c r="AO3" s="7"/>
       <c r="AP3" s="7"/>
     </row>
-    <row r="4" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>53</v>
       </c>
@@ -6050,7 +6050,7 @@
       <c r="AO4" s="1"/>
       <c r="AP4" s="1"/>
     </row>
-    <row r="5" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>143</v>
       </c>
@@ -6074,7 +6074,7 @@
       <c r="AO5" s="1"/>
       <c r="AP5" s="1"/>
     </row>
-    <row r="6" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>58</v>
       </c>
@@ -6101,7 +6101,7 @@
       <c r="AO6" s="1"/>
       <c r="AP6" s="1"/>
     </row>
-    <row r="7" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>57</v>
       </c>
@@ -6125,7 +6125,7 @@
       <c r="AO7" s="1"/>
       <c r="AP7" s="1"/>
     </row>
-    <row r="8" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>144</v>
       </c>
@@ -6149,7 +6149,7 @@
       <c r="AO8" s="1"/>
       <c r="AP8" s="1"/>
     </row>
-    <row r="9" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>140</v>
       </c>
@@ -6173,7 +6173,7 @@
       <c r="AO9" s="1"/>
       <c r="AP9" s="1"/>
     </row>
-    <row r="10" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>95</v>
       </c>
@@ -6197,7 +6197,7 @@
       <c r="AO10" s="1"/>
       <c r="AP10" s="1"/>
     </row>
-    <row r="11" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>145</v>
       </c>
@@ -6221,7 +6221,7 @@
       <c r="AO11" s="1"/>
       <c r="AP11" s="1"/>
     </row>
-    <row r="12" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>135</v>
       </c>
@@ -6245,7 +6245,7 @@
       <c r="AO12" s="1"/>
       <c r="AP12" s="1"/>
     </row>
-    <row r="13" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
@@ -6269,7 +6269,7 @@
       <c r="AO13" s="1"/>
       <c r="AP13" s="1"/>
     </row>
-    <row r="14" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -6289,7 +6289,7 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:42" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:42" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>38</v>
       </c>
@@ -6298,10 +6298,10 @@
         <v>16.55</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C17" s="11">
         <f>SUM(F2:F13,E17)</f>
         <v>38.470000000000006</v>
@@ -6315,7 +6315,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -6339,7 +6339,7 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -6361,20 +6361,20 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16" width="12.33203125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="10.44140625" style="2" customWidth="1"/>
-    <col min="18" max="19" width="13.33203125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="32.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16" width="12.28515625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" style="2" customWidth="1"/>
+    <col min="18" max="19" width="13.28515625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="32.42578125" style="5" customWidth="1"/>
     <col min="21" max="21" width="23" style="5" customWidth="1"/>
-    <col min="22" max="26" width="9.109375" style="5"/>
-    <col min="27" max="16384" width="9.109375" style="2"/>
+    <col min="22" max="26" width="9.140625" style="5"/>
+    <col min="27" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>34</v>
       </c>
@@ -6442,7 +6442,7 @@
       <c r="AP2" s="7"/>
       <c r="AQ2" s="7"/>
     </row>
-    <row r="3" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>47</v>
       </c>
@@ -6469,7 +6469,7 @@
       <c r="AP3" s="7"/>
       <c r="AQ3" s="7"/>
     </row>
-    <row r="4" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>56</v>
       </c>
@@ -6490,7 +6490,7 @@
       <c r="AP4" s="1"/>
       <c r="AQ4" s="1"/>
     </row>
-    <row r="5" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -6511,7 +6511,7 @@
       <c r="AP5" s="1"/>
       <c r="AQ5" s="1"/>
     </row>
-    <row r="6" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>57</v>
       </c>
@@ -6532,7 +6532,7 @@
       <c r="AP6" s="1"/>
       <c r="AQ6" s="1"/>
     </row>
-    <row r="7" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -6553,7 +6553,7 @@
       <c r="AP7" s="1"/>
       <c r="AQ7" s="1"/>
     </row>
-    <row r="8" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>81</v>
       </c>
@@ -6574,7 +6574,7 @@
       <c r="AP8" s="1"/>
       <c r="AQ8" s="1"/>
     </row>
-    <row r="9" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -6598,7 +6598,7 @@
       <c r="AP9" s="1"/>
       <c r="AQ9" s="1"/>
     </row>
-    <row r="10" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>51</v>
       </c>
@@ -6619,7 +6619,7 @@
       <c r="AP10" s="1"/>
       <c r="AQ10" s="1"/>
     </row>
-    <row r="11" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>66</v>
       </c>
@@ -6640,7 +6640,7 @@
       <c r="AP11" s="1"/>
       <c r="AQ11" s="1"/>
     </row>
-    <row r="12" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -6661,7 +6661,7 @@
       <c r="AP12" s="1"/>
       <c r="AQ12" s="1"/>
     </row>
-    <row r="13" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>68</v>
       </c>
@@ -6682,7 +6682,7 @@
       <c r="AP13" s="1"/>
       <c r="AQ13" s="1"/>
     </row>
-    <row r="14" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -6703,7 +6703,7 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:43" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:43" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>38</v>
       </c>
@@ -6712,10 +6712,10 @@
         <v>36.36</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C17" s="11">
         <f>SUM(F2:F13,E17)</f>
         <v>86.07</v>
@@ -6729,7 +6729,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -6754,7 +6754,7 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -6776,20 +6776,20 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16" width="12.33203125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="10.44140625" style="2" customWidth="1"/>
-    <col min="18" max="19" width="13.33203125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="32.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16" width="12.28515625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" style="2" customWidth="1"/>
+    <col min="18" max="19" width="13.28515625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="32.42578125" style="5" customWidth="1"/>
     <col min="21" max="21" width="23" style="5" customWidth="1"/>
-    <col min="22" max="26" width="9.109375" style="5"/>
-    <col min="27" max="16384" width="9.109375" style="2"/>
+    <col min="22" max="26" width="9.140625" style="5"/>
+    <col min="27" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>131</v>
       </c>
@@ -6860,7 +6860,7 @@
       <c r="AP2" s="7"/>
       <c r="AQ2" s="7"/>
     </row>
-    <row r="3" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>146</v>
       </c>
@@ -6890,7 +6890,7 @@
       <c r="AP3" s="7"/>
       <c r="AQ3" s="7"/>
     </row>
-    <row r="4" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>94</v>
       </c>
@@ -6914,7 +6914,7 @@
       <c r="AP4" s="1"/>
       <c r="AQ4" s="1"/>
     </row>
-    <row r="5" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -6938,7 +6938,7 @@
       <c r="AP5" s="1"/>
       <c r="AQ5" s="1"/>
     </row>
-    <row r="6" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>143</v>
       </c>
@@ -6962,7 +6962,7 @@
       <c r="AP6" s="1"/>
       <c r="AQ6" s="1"/>
     </row>
-    <row r="7" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>58</v>
       </c>
@@ -6986,7 +6986,7 @@
       <c r="AP7" s="1"/>
       <c r="AQ7" s="1"/>
     </row>
-    <row r="8" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>109</v>
       </c>
@@ -7013,7 +7013,7 @@
       <c r="AP8" s="1"/>
       <c r="AQ8" s="1"/>
     </row>
-    <row r="9" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>140</v>
       </c>
@@ -7037,7 +7037,7 @@
       <c r="AP9" s="1"/>
       <c r="AQ9" s="1"/>
     </row>
-    <row r="10" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>82</v>
       </c>
@@ -7061,7 +7061,7 @@
       <c r="AP10" s="1"/>
       <c r="AQ10" s="1"/>
     </row>
-    <row r="11" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>147</v>
       </c>
@@ -7085,7 +7085,7 @@
       <c r="AP11" s="1"/>
       <c r="AQ11" s="1"/>
     </row>
-    <row r="12" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>135</v>
       </c>
@@ -7109,7 +7109,7 @@
       <c r="AP12" s="1"/>
       <c r="AQ12" s="1"/>
     </row>
-    <row r="13" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>96</v>
       </c>
@@ -7133,7 +7133,7 @@
       <c r="AP13" s="1"/>
       <c r="AQ13" s="1"/>
     </row>
-    <row r="14" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -7154,7 +7154,7 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:43" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:43" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>38</v>
       </c>
@@ -7163,10 +7163,10 @@
         <v>3.4000000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C17" s="11">
         <f>SUM(F2:F13,E17)</f>
         <v>12.32</v>
@@ -7180,7 +7180,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -7205,7 +7205,7 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -7227,20 +7227,20 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="17" width="12.33203125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="10.44140625" style="2" customWidth="1"/>
-    <col min="19" max="20" width="13.33203125" style="2" customWidth="1"/>
-    <col min="21" max="21" width="32.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="17" width="12.28515625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" style="2" customWidth="1"/>
+    <col min="19" max="20" width="13.28515625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="32.42578125" style="5" customWidth="1"/>
     <col min="22" max="22" width="23" style="5" customWidth="1"/>
-    <col min="23" max="27" width="9.109375" style="5"/>
-    <col min="28" max="16384" width="9.109375" style="2"/>
+    <col min="23" max="27" width="9.140625" style="5"/>
+    <col min="28" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:44" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:44" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>36</v>
       </c>
@@ -7308,7 +7308,7 @@
       <c r="AQ2" s="7"/>
       <c r="AR2" s="7"/>
     </row>
-    <row r="3" spans="1:44" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:44" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>83</v>
       </c>
@@ -7338,7 +7338,7 @@
       <c r="AQ3" s="7"/>
       <c r="AR3" s="7"/>
     </row>
-    <row r="4" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>56</v>
       </c>
@@ -7359,7 +7359,7 @@
       <c r="AQ4" s="1"/>
       <c r="AR4" s="1"/>
     </row>
-    <row r="5" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -7380,7 +7380,7 @@
       <c r="AQ5" s="1"/>
       <c r="AR5" s="1"/>
     </row>
-    <row r="6" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>57</v>
       </c>
@@ -7401,7 +7401,7 @@
       <c r="AQ6" s="1"/>
       <c r="AR6" s="1"/>
     </row>
-    <row r="7" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>81</v>
       </c>
@@ -7422,7 +7422,7 @@
       <c r="AQ7" s="1"/>
       <c r="AR7" s="1"/>
     </row>
-    <row r="8" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>103</v>
       </c>
@@ -7443,7 +7443,7 @@
       <c r="AQ8" s="1"/>
       <c r="AR8" s="1"/>
     </row>
-    <row r="9" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -7464,7 +7464,7 @@
       <c r="AQ9" s="1"/>
       <c r="AR9" s="1"/>
     </row>
-    <row r="10" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>82</v>
       </c>
@@ -7485,7 +7485,7 @@
       <c r="AQ10" s="1"/>
       <c r="AR10" s="1"/>
     </row>
-    <row r="11" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>66</v>
       </c>
@@ -7506,7 +7506,7 @@
       <c r="AQ11" s="1"/>
       <c r="AR11" s="1"/>
     </row>
-    <row r="12" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>79</v>
       </c>
@@ -7527,7 +7527,7 @@
       <c r="AQ12" s="1"/>
       <c r="AR12" s="1"/>
     </row>
-    <row r="13" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>68</v>
       </c>
@@ -7548,7 +7548,7 @@
       <c r="AQ13" s="1"/>
       <c r="AR13" s="1"/>
     </row>
-    <row r="14" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -7570,7 +7570,7 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:44" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:44" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>38</v>
       </c>
@@ -7579,10 +7579,10 @@
         <v>33.450000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C17" s="11">
         <f>SUM(F2:F13,E17)</f>
         <v>91.01</v>
@@ -7596,7 +7596,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -7622,7 +7622,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -7644,20 +7644,20 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="17" width="12.33203125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="10.44140625" style="2" customWidth="1"/>
-    <col min="19" max="20" width="13.33203125" style="2" customWidth="1"/>
-    <col min="21" max="21" width="32.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="17" width="12.28515625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" style="2" customWidth="1"/>
+    <col min="19" max="20" width="13.28515625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="32.42578125" style="5" customWidth="1"/>
     <col min="22" max="22" width="23" style="5" customWidth="1"/>
-    <col min="23" max="27" width="9.109375" style="5"/>
-    <col min="28" max="16384" width="9.109375" style="2"/>
+    <col min="23" max="27" width="9.140625" style="5"/>
+    <col min="28" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7698,7 +7698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:44" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:44" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>36</v>
       </c>
@@ -7728,7 +7728,7 @@
       <c r="AQ2" s="7"/>
       <c r="AR2" s="7"/>
     </row>
-    <row r="3" spans="1:44" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:44" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>83</v>
       </c>
@@ -7758,7 +7758,7 @@
       <c r="AQ3" s="7"/>
       <c r="AR3" s="7"/>
     </row>
-    <row r="4" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>56</v>
       </c>
@@ -7782,7 +7782,7 @@
       <c r="AQ4" s="1"/>
       <c r="AR4" s="1"/>
     </row>
-    <row r="5" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -7806,7 +7806,7 @@
       <c r="AQ5" s="1"/>
       <c r="AR5" s="1"/>
     </row>
-    <row r="6" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>57</v>
       </c>
@@ -7830,7 +7830,7 @@
       <c r="AQ6" s="1"/>
       <c r="AR6" s="1"/>
     </row>
-    <row r="7" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>81</v>
       </c>
@@ -7854,7 +7854,7 @@
       <c r="AQ7" s="1"/>
       <c r="AR7" s="1"/>
     </row>
-    <row r="8" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>84</v>
       </c>
@@ -7878,7 +7878,7 @@
       <c r="AQ8" s="1"/>
       <c r="AR8" s="1"/>
     </row>
-    <row r="9" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>86</v>
       </c>
@@ -7902,7 +7902,7 @@
       <c r="AQ9" s="1"/>
       <c r="AR9" s="1"/>
     </row>
-    <row r="10" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>82</v>
       </c>
@@ -7926,7 +7926,7 @@
       <c r="AQ10" s="1"/>
       <c r="AR10" s="1"/>
     </row>
-    <row r="11" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>59</v>
       </c>
@@ -7950,7 +7950,7 @@
       <c r="AQ11" s="1"/>
       <c r="AR11" s="1"/>
     </row>
-    <row r="12" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
@@ -7977,7 +7977,7 @@
       <c r="AQ12" s="1"/>
       <c r="AR12" s="1"/>
     </row>
-    <row r="13" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
@@ -8001,7 +8001,7 @@
       <c r="AQ13" s="1"/>
       <c r="AR13" s="1"/>
     </row>
-    <row r="14" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -8023,7 +8023,7 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:44" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:44" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>38</v>
       </c>
@@ -8032,10 +8032,10 @@
         <v>19.490000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C17" s="11">
         <f>SUM(F2:F13,E17)</f>
         <v>66.740000000000009</v>
@@ -8049,7 +8049,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -8075,7 +8075,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -8097,20 +8097,20 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="18" width="12.33203125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="10.44140625" style="2" customWidth="1"/>
-    <col min="20" max="21" width="13.33203125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="32.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="18" width="12.28515625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" style="2" customWidth="1"/>
+    <col min="20" max="21" width="13.28515625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="32.42578125" style="5" customWidth="1"/>
     <col min="23" max="23" width="23" style="5" customWidth="1"/>
-    <col min="24" max="28" width="9.109375" style="5"/>
-    <col min="29" max="16384" width="9.109375" style="2"/>
+    <col min="24" max="28" width="9.140625" style="5"/>
+    <col min="29" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8151,7 +8151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:45" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:45" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>36</v>
       </c>
@@ -8178,7 +8178,7 @@
       <c r="AR2" s="7"/>
       <c r="AS2" s="7"/>
     </row>
-    <row r="3" spans="1:45" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>34</v>
       </c>
@@ -8205,7 +8205,7 @@
       <c r="AR3" s="7"/>
       <c r="AS3" s="7"/>
     </row>
-    <row r="4" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>56</v>
       </c>
@@ -8226,7 +8226,7 @@
       <c r="AR4" s="1"/>
       <c r="AS4" s="1"/>
     </row>
-    <row r="5" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -8247,7 +8247,7 @@
       <c r="AR5" s="1"/>
       <c r="AS5" s="1"/>
     </row>
-    <row r="6" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -8268,7 +8268,7 @@
       <c r="AR6" s="1"/>
       <c r="AS6" s="1"/>
     </row>
-    <row r="7" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>81</v>
       </c>
@@ -8289,7 +8289,7 @@
       <c r="AR7" s="1"/>
       <c r="AS7" s="1"/>
     </row>
-    <row r="8" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -8310,7 +8310,7 @@
       <c r="AR8" s="1"/>
       <c r="AS8" s="1"/>
     </row>
-    <row r="9" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -8331,7 +8331,7 @@
       <c r="AR9" s="1"/>
       <c r="AS9" s="1"/>
     </row>
-    <row r="10" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>82</v>
       </c>
@@ -8352,7 +8352,7 @@
       <c r="AR10" s="1"/>
       <c r="AS10" s="1"/>
     </row>
-    <row r="11" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -8373,7 +8373,7 @@
       <c r="AR11" s="1"/>
       <c r="AS11" s="1"/>
     </row>
-    <row r="12" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>62</v>
       </c>
@@ -8397,7 +8397,7 @@
       <c r="AR12" s="1"/>
       <c r="AS12" s="1"/>
     </row>
-    <row r="13" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>68</v>
       </c>
@@ -8418,7 +8418,7 @@
       <c r="AR13" s="1"/>
       <c r="AS13" s="1"/>
     </row>
-    <row r="14" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -8441,7 +8441,7 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:45" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:45" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>38</v>
       </c>
@@ -8450,10 +8450,10 @@
         <v>29.59</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C17" s="11">
         <f>SUM(F2:F13,E17)</f>
         <v>92</v>
@@ -8467,7 +8467,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -8494,7 +8494,7 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -8516,20 +8516,20 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="19" width="12.33203125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="10.44140625" style="2" customWidth="1"/>
-    <col min="21" max="22" width="13.33203125" style="2" customWidth="1"/>
-    <col min="23" max="23" width="32.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="19" width="12.28515625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="10.42578125" style="2" customWidth="1"/>
+    <col min="21" max="22" width="13.28515625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="32.42578125" style="5" customWidth="1"/>
     <col min="24" max="24" width="23" style="5" customWidth="1"/>
-    <col min="25" max="29" width="9.109375" style="5"/>
-    <col min="30" max="16384" width="9.109375" style="2"/>
+    <col min="25" max="29" width="9.140625" style="5"/>
+    <col min="30" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8570,7 +8570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:46" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:46" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>36</v>
       </c>
@@ -8597,7 +8597,7 @@
       <c r="AS2" s="7"/>
       <c r="AT2" s="7"/>
     </row>
-    <row r="3" spans="1:46" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:46" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>63</v>
       </c>
@@ -8624,7 +8624,7 @@
       <c r="AS3" s="7"/>
       <c r="AT3" s="7"/>
     </row>
-    <row r="4" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>56</v>
       </c>
@@ -8645,7 +8645,7 @@
       <c r="AS4" s="1"/>
       <c r="AT4" s="1"/>
     </row>
-    <row r="5" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -8666,7 +8666,7 @@
       <c r="AS5" s="1"/>
       <c r="AT5" s="1"/>
     </row>
-    <row r="6" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>84</v>
       </c>
@@ -8690,7 +8690,7 @@
       <c r="AS6" s="1"/>
       <c r="AT6" s="1"/>
     </row>
-    <row r="7" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -8711,7 +8711,7 @@
       <c r="AS7" s="1"/>
       <c r="AT7" s="1"/>
     </row>
-    <row r="8" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>103</v>
       </c>
@@ -8732,7 +8732,7 @@
       <c r="AS8" s="1"/>
       <c r="AT8" s="1"/>
     </row>
-    <row r="9" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -8753,7 +8753,7 @@
       <c r="AS9" s="1"/>
       <c r="AT9" s="1"/>
     </row>
-    <row r="10" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>148</v>
       </c>
@@ -8774,7 +8774,7 @@
       <c r="AS10" s="1"/>
       <c r="AT10" s="1"/>
     </row>
-    <row r="11" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>66</v>
       </c>
@@ -8795,7 +8795,7 @@
       <c r="AS11" s="1"/>
       <c r="AT11" s="1"/>
     </row>
-    <row r="12" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>62</v>
       </c>
@@ -8816,7 +8816,7 @@
       <c r="AS12" s="1"/>
       <c r="AT12" s="1"/>
     </row>
-    <row r="13" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>68</v>
       </c>
@@ -8837,7 +8837,7 @@
       <c r="AS13" s="1"/>
       <c r="AT13" s="1"/>
     </row>
-    <row r="14" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -8861,7 +8861,7 @@
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
     </row>
-    <row r="15" spans="1:46" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:46" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>38</v>
       </c>
@@ -8870,10 +8870,10 @@
         <v>48.45</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C17" s="11">
         <f>SUM(F2:F13,E17)</f>
         <v>100</v>
@@ -8887,7 +8887,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -8915,7 +8915,7 @@
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -8937,20 +8937,20 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="20" width="12.33203125" style="2" customWidth="1"/>
-    <col min="21" max="21" width="10.44140625" style="2" customWidth="1"/>
-    <col min="22" max="23" width="13.33203125" style="2" customWidth="1"/>
-    <col min="24" max="24" width="32.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="20" width="12.28515625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="10.42578125" style="2" customWidth="1"/>
+    <col min="22" max="23" width="13.28515625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="32.42578125" style="5" customWidth="1"/>
     <col min="25" max="25" width="23" style="5" customWidth="1"/>
-    <col min="26" max="30" width="9.109375" style="5"/>
-    <col min="31" max="16384" width="9.109375" style="2"/>
+    <col min="26" max="30" width="9.140625" style="5"/>
+    <col min="31" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:47" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8991,7 +8991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:47" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:47" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>36</v>
       </c>
@@ -9018,7 +9018,7 @@
       <c r="AT2" s="7"/>
       <c r="AU2" s="7"/>
     </row>
-    <row r="3" spans="1:47" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>63</v>
       </c>
@@ -9045,7 +9045,7 @@
       <c r="AT3" s="7"/>
       <c r="AU3" s="7"/>
     </row>
-    <row r="4" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>56</v>
       </c>
@@ -9066,7 +9066,7 @@
       <c r="AT4" s="1"/>
       <c r="AU4" s="1"/>
     </row>
-    <row r="5" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -9087,7 +9087,7 @@
       <c r="AT5" s="1"/>
       <c r="AU5" s="1"/>
     </row>
-    <row r="6" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -9108,7 +9108,7 @@
       <c r="AT6" s="1"/>
       <c r="AU6" s="1"/>
     </row>
-    <row r="7" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>103</v>
       </c>
@@ -9129,7 +9129,7 @@
       <c r="AT7" s="1"/>
       <c r="AU7" s="1"/>
     </row>
-    <row r="8" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -9150,7 +9150,7 @@
       <c r="AT8" s="1"/>
       <c r="AU8" s="1"/>
     </row>
-    <row r="9" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>85</v>
       </c>
@@ -9174,7 +9174,7 @@
       <c r="AT9" s="1"/>
       <c r="AU9" s="1"/>
     </row>
-    <row r="10" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -9195,7 +9195,7 @@
       <c r="AT10" s="1"/>
       <c r="AU10" s="1"/>
     </row>
-    <row r="11" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>80</v>
       </c>
@@ -9216,7 +9216,7 @@
       <c r="AT11" s="1"/>
       <c r="AU11" s="1"/>
     </row>
-    <row r="12" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>62</v>
       </c>
@@ -9237,7 +9237,7 @@
       <c r="AT12" s="1"/>
       <c r="AU12" s="1"/>
     </row>
-    <row r="13" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>68</v>
       </c>
@@ -9258,7 +9258,7 @@
       <c r="AT13" s="1"/>
       <c r="AU13" s="1"/>
     </row>
-    <row r="14" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -9283,7 +9283,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:47" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:47" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>38</v>
       </c>
@@ -9292,10 +9292,10 @@
         <v>31.52</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C17" s="11">
         <f>SUM(F2:F13,E17)</f>
         <v>97.54</v>
@@ -9309,7 +9309,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -9338,7 +9338,7 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -9360,20 +9360,20 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="21" width="12.33203125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="10.44140625" style="2" customWidth="1"/>
-    <col min="23" max="24" width="13.33203125" style="2" customWidth="1"/>
-    <col min="25" max="25" width="32.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="21" width="12.28515625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="10.42578125" style="2" customWidth="1"/>
+    <col min="23" max="24" width="13.28515625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="32.42578125" style="5" customWidth="1"/>
     <col min="26" max="26" width="23" style="5" customWidth="1"/>
-    <col min="27" max="31" width="9.109375" style="5"/>
-    <col min="32" max="16384" width="9.109375" style="2"/>
+    <col min="27" max="31" width="9.140625" style="5"/>
+    <col min="32" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -9414,7 +9414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:48" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:48" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>36</v>
       </c>
@@ -9441,7 +9441,7 @@
       <c r="AU2" s="7"/>
       <c r="AV2" s="7"/>
     </row>
-    <row r="3" spans="1:48" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:48" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>63</v>
       </c>
@@ -9468,7 +9468,7 @@
       <c r="AU3" s="7"/>
       <c r="AV3" s="7"/>
     </row>
-    <row r="4" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>56</v>
       </c>
@@ -9489,7 +9489,7 @@
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
     </row>
-    <row r="5" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -9510,7 +9510,7 @@
       <c r="AU5" s="1"/>
       <c r="AV5" s="1"/>
     </row>
-    <row r="6" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -9531,7 +9531,7 @@
       <c r="AU6" s="1"/>
       <c r="AV6" s="1"/>
     </row>
-    <row r="7" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>81</v>
       </c>
@@ -9552,7 +9552,7 @@
       <c r="AU7" s="1"/>
       <c r="AV7" s="1"/>
     </row>
-    <row r="8" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>64</v>
       </c>
@@ -9573,7 +9573,7 @@
       <c r="AU8" s="1"/>
       <c r="AV8" s="1"/>
     </row>
-    <row r="9" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -9597,7 +9597,7 @@
       <c r="AU9" s="1"/>
       <c r="AV9" s="1"/>
     </row>
-    <row r="10" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>82</v>
       </c>
@@ -9618,7 +9618,7 @@
       <c r="AU10" s="1"/>
       <c r="AV10" s="1"/>
     </row>
-    <row r="11" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>88</v>
       </c>
@@ -9639,7 +9639,7 @@
       <c r="AU11" s="1"/>
       <c r="AV11" s="1"/>
     </row>
-    <row r="12" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>62</v>
       </c>
@@ -9660,7 +9660,7 @@
       <c r="AU12" s="1"/>
       <c r="AV12" s="1"/>
     </row>
-    <row r="13" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>68</v>
       </c>
@@ -9681,7 +9681,7 @@
       <c r="AU13" s="1"/>
       <c r="AV13" s="1"/>
     </row>
-    <row r="14" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -9707,7 +9707,7 @@
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:48" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:48" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>38</v>
       </c>
@@ -9716,10 +9716,10 @@
         <v>38.14</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C17" s="11">
         <f>SUM(F2:F13,E17)</f>
         <v>90.82</v>
@@ -9733,7 +9733,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -9763,7 +9763,7 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -9785,20 +9785,20 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="22" width="12.33203125" style="2" customWidth="1"/>
-    <col min="23" max="23" width="10.44140625" style="2" customWidth="1"/>
-    <col min="24" max="25" width="13.33203125" style="2" customWidth="1"/>
-    <col min="26" max="26" width="32.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="22" width="12.28515625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="10.42578125" style="2" customWidth="1"/>
+    <col min="24" max="25" width="13.28515625" style="2" customWidth="1"/>
+    <col min="26" max="26" width="32.42578125" style="5" customWidth="1"/>
     <col min="27" max="27" width="23" style="5" customWidth="1"/>
-    <col min="28" max="32" width="9.109375" style="5"/>
-    <col min="33" max="16384" width="9.109375" style="2"/>
+    <col min="28" max="32" width="9.140625" style="5"/>
+    <col min="33" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -9839,7 +9839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:49" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:49" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>36</v>
       </c>
@@ -9866,7 +9866,7 @@
       <c r="AV2" s="7"/>
       <c r="AW2" s="7"/>
     </row>
-    <row r="3" spans="1:49" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:49" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>63</v>
       </c>
@@ -9893,7 +9893,7 @@
       <c r="AV3" s="7"/>
       <c r="AW3" s="7"/>
     </row>
-    <row r="4" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>56</v>
       </c>
@@ -9914,7 +9914,7 @@
       <c r="AV4" s="1"/>
       <c r="AW4" s="1"/>
     </row>
-    <row r="5" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -9935,7 +9935,7 @@
       <c r="AV5" s="1"/>
       <c r="AW5" s="1"/>
     </row>
-    <row r="6" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>57</v>
       </c>
@@ -9956,7 +9956,7 @@
       <c r="AV6" s="1"/>
       <c r="AW6" s="1"/>
     </row>
-    <row r="7" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -9977,7 +9977,7 @@
       <c r="AV7" s="1"/>
       <c r="AW7" s="1"/>
     </row>
-    <row r="8" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>81</v>
       </c>
@@ -9998,7 +9998,7 @@
       <c r="AV8" s="1"/>
       <c r="AW8" s="1"/>
     </row>
-    <row r="9" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>64</v>
       </c>
@@ -10019,7 +10019,7 @@
       <c r="AV9" s="1"/>
       <c r="AW9" s="1"/>
     </row>
-    <row r="10" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>82</v>
       </c>
@@ -10040,7 +10040,7 @@
       <c r="AV10" s="1"/>
       <c r="AW10" s="1"/>
     </row>
-    <row r="11" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>97</v>
       </c>
@@ -10061,7 +10061,7 @@
       <c r="AV11" s="1"/>
       <c r="AW11" s="1"/>
     </row>
-    <row r="12" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>62</v>
       </c>
@@ -10085,7 +10085,7 @@
       <c r="AV12" s="1"/>
       <c r="AW12" s="1"/>
     </row>
-    <row r="13" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>68</v>
       </c>
@@ -10106,7 +10106,7 @@
       <c r="AV13" s="1"/>
       <c r="AW13" s="1"/>
     </row>
-    <row r="14" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -10133,7 +10133,7 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:49" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:49" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>38</v>
       </c>
@@ -10142,10 +10142,10 @@
         <v>17.04</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C17" s="11">
         <f>SUM(F2:F13,E17)</f>
         <v>77</v>
@@ -10159,7 +10159,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -10190,7 +10190,7 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -10212,20 +10212,20 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="13.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="32.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="13.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" style="5" customWidth="1"/>
     <col min="8" max="8" width="23" style="5" customWidth="1"/>
-    <col min="9" max="13" width="9.109375" style="5"/>
-    <col min="14" max="16384" width="9.109375" style="2"/>
+    <col min="9" max="13" width="9.140625" style="5"/>
+    <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -10266,7 +10266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>116</v>
       </c>
@@ -10296,7 +10296,7 @@
       <c r="AC2" s="7"/>
       <c r="AD2" s="7"/>
     </row>
-    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>65</v>
       </c>
@@ -10329,7 +10329,7 @@
       <c r="AC3" s="7"/>
       <c r="AD3" s="7"/>
     </row>
-    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>117</v>
       </c>
@@ -10353,7 +10353,7 @@
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
     </row>
-    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>42</v>
       </c>
@@ -10377,7 +10377,7 @@
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
     </row>
-    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>99</v>
       </c>
@@ -10401,7 +10401,7 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
     </row>
-    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>41</v>
       </c>
@@ -10425,7 +10425,7 @@
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
     </row>
-    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>64</v>
       </c>
@@ -10449,7 +10449,7 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
     </row>
-    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>90</v>
       </c>
@@ -10473,7 +10473,7 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
     </row>
-    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>43</v>
       </c>
@@ -10497,7 +10497,7 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
     </row>
-    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>37</v>
       </c>
@@ -10521,7 +10521,7 @@
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
     </row>
-    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>66</v>
       </c>
@@ -10545,7 +10545,7 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
     </row>
-    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>89</v>
       </c>
@@ -10569,7 +10569,7 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
     </row>
-    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -10577,7 +10577,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:30" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>38</v>
       </c>
@@ -10586,10 +10586,10 @@
         <v>47.04</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" s="11">
         <f>SUM(F2:F13,E17)</f>
         <v>61.51</v>
@@ -10603,7 +10603,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -10615,7 +10615,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -10637,20 +10637,20 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="23" width="12.33203125" style="2" customWidth="1"/>
-    <col min="24" max="24" width="10.44140625" style="2" customWidth="1"/>
-    <col min="25" max="26" width="13.33203125" style="2" customWidth="1"/>
-    <col min="27" max="27" width="32.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="23" width="12.28515625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="10.42578125" style="2" customWidth="1"/>
+    <col min="25" max="26" width="13.28515625" style="2" customWidth="1"/>
+    <col min="27" max="27" width="32.42578125" style="5" customWidth="1"/>
     <col min="28" max="28" width="23" style="5" customWidth="1"/>
-    <col min="29" max="33" width="9.109375" style="5"/>
-    <col min="34" max="16384" width="9.109375" style="2"/>
+    <col min="29" max="33" width="9.140625" style="5"/>
+    <col min="34" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -10691,7 +10691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:50" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>36</v>
       </c>
@@ -10718,7 +10718,7 @@
       <c r="AW2" s="7"/>
       <c r="AX2" s="7"/>
     </row>
-    <row r="3" spans="1:50" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>63</v>
       </c>
@@ -10745,7 +10745,7 @@
       <c r="AW3" s="7"/>
       <c r="AX3" s="7"/>
     </row>
-    <row r="4" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>56</v>
       </c>
@@ -10766,7 +10766,7 @@
       <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
     </row>
-    <row r="5" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -10787,7 +10787,7 @@
       <c r="AW5" s="1"/>
       <c r="AX5" s="1"/>
     </row>
-    <row r="6" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -10808,7 +10808,7 @@
       <c r="AW6" s="1"/>
       <c r="AX6" s="1"/>
     </row>
-    <row r="7" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>81</v>
       </c>
@@ -10829,7 +10829,7 @@
       <c r="AW7" s="1"/>
       <c r="AX7" s="1"/>
     </row>
-    <row r="8" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>64</v>
       </c>
@@ -10850,7 +10850,7 @@
       <c r="AW8" s="1"/>
       <c r="AX8" s="1"/>
     </row>
-    <row r="9" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -10874,7 +10874,7 @@
       <c r="AW9" s="1"/>
       <c r="AX9" s="1"/>
     </row>
-    <row r="10" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>82</v>
       </c>
@@ -10895,7 +10895,7 @@
       <c r="AW10" s="1"/>
       <c r="AX10" s="1"/>
     </row>
-    <row r="11" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>88</v>
       </c>
@@ -10916,7 +10916,7 @@
       <c r="AW11" s="1"/>
       <c r="AX11" s="1"/>
     </row>
-    <row r="12" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>62</v>
       </c>
@@ -10937,7 +10937,7 @@
       <c r="AW12" s="1"/>
       <c r="AX12" s="1"/>
     </row>
-    <row r="13" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>68</v>
       </c>
@@ -10958,7 +10958,7 @@
       <c r="AW13" s="1"/>
       <c r="AX13" s="1"/>
     </row>
-    <row r="14" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -10986,7 +10986,7 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:50" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>38</v>
       </c>
@@ -10995,10 +10995,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C17" s="11">
         <f>SUM(F2:F13,E17)</f>
         <v>78.16</v>
@@ -11012,7 +11012,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -11044,7 +11044,7 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -11066,20 +11066,20 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="24" width="12.33203125" style="2" customWidth="1"/>
-    <col min="25" max="25" width="10.44140625" style="2" customWidth="1"/>
-    <col min="26" max="27" width="13.33203125" style="2" customWidth="1"/>
-    <col min="28" max="28" width="32.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="24" width="12.28515625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="10.42578125" style="2" customWidth="1"/>
+    <col min="26" max="27" width="13.28515625" style="2" customWidth="1"/>
+    <col min="28" max="28" width="32.42578125" style="5" customWidth="1"/>
     <col min="29" max="29" width="23" style="5" customWidth="1"/>
-    <col min="30" max="34" width="9.109375" style="5"/>
-    <col min="35" max="16384" width="9.109375" style="2"/>
+    <col min="30" max="34" width="9.140625" style="5"/>
+    <col min="35" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -11120,7 +11120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:51" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:51" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>36</v>
       </c>
@@ -11147,7 +11147,7 @@
       <c r="AX2" s="7"/>
       <c r="AY2" s="7"/>
     </row>
-    <row r="3" spans="1:51" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:51" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>63</v>
       </c>
@@ -11174,7 +11174,7 @@
       <c r="AX3" s="7"/>
       <c r="AY3" s="7"/>
     </row>
-    <row r="4" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>56</v>
       </c>
@@ -11195,7 +11195,7 @@
       <c r="AX4" s="1"/>
       <c r="AY4" s="1"/>
     </row>
-    <row r="5" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>57</v>
       </c>
@@ -11216,7 +11216,7 @@
       <c r="AX5" s="1"/>
       <c r="AY5" s="1"/>
     </row>
-    <row r="6" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -11237,7 +11237,7 @@
       <c r="AX6" s="1"/>
       <c r="AY6" s="1"/>
     </row>
-    <row r="7" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>81</v>
       </c>
@@ -11258,7 +11258,7 @@
       <c r="AX7" s="1"/>
       <c r="AY7" s="1"/>
     </row>
-    <row r="8" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>64</v>
       </c>
@@ -11279,7 +11279,7 @@
       <c r="AX8" s="1"/>
       <c r="AY8" s="1"/>
     </row>
-    <row r="9" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -11300,7 +11300,7 @@
       <c r="AX9" s="1"/>
       <c r="AY9" s="1"/>
     </row>
-    <row r="10" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>82</v>
       </c>
@@ -11321,7 +11321,7 @@
       <c r="AX10" s="1"/>
       <c r="AY10" s="1"/>
     </row>
-    <row r="11" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>88</v>
       </c>
@@ -11342,7 +11342,7 @@
       <c r="AX11" s="1"/>
       <c r="AY11" s="1"/>
     </row>
-    <row r="12" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>62</v>
       </c>
@@ -11366,7 +11366,7 @@
       <c r="AX12" s="1"/>
       <c r="AY12" s="1"/>
     </row>
-    <row r="13" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>68</v>
       </c>
@@ -11387,7 +11387,7 @@
       <c r="AX13" s="1"/>
       <c r="AY13" s="1"/>
     </row>
-    <row r="14" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -11416,7 +11416,7 @@
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
     </row>
-    <row r="15" spans="1:51" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:51" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>38</v>
       </c>
@@ -11425,10 +11425,10 @@
         <v>15.120000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C17" s="11">
         <f>SUM(F2:F13,E17)</f>
         <v>75.78</v>
@@ -11442,7 +11442,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -11475,7 +11475,7 @@
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -11497,20 +11497,20 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="25" width="12.33203125" style="2" customWidth="1"/>
-    <col min="26" max="26" width="10.44140625" style="2" customWidth="1"/>
-    <col min="27" max="28" width="13.33203125" style="2" customWidth="1"/>
-    <col min="29" max="29" width="32.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="25" width="12.28515625" style="2" customWidth="1"/>
+    <col min="26" max="26" width="10.42578125" style="2" customWidth="1"/>
+    <col min="27" max="28" width="13.28515625" style="2" customWidth="1"/>
+    <col min="29" max="29" width="32.42578125" style="5" customWidth="1"/>
     <col min="30" max="30" width="23" style="5" customWidth="1"/>
-    <col min="31" max="35" width="9.109375" style="5"/>
-    <col min="36" max="16384" width="9.109375" style="2"/>
+    <col min="31" max="35" width="9.140625" style="5"/>
+    <col min="36" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -11551,7 +11551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>36</v>
       </c>
@@ -11578,7 +11578,7 @@
       <c r="AY2" s="7"/>
       <c r="AZ2" s="7"/>
     </row>
-    <row r="3" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>63</v>
       </c>
@@ -11605,7 +11605,7 @@
       <c r="AY3" s="7"/>
       <c r="AZ3" s="7"/>
     </row>
-    <row r="4" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>56</v>
       </c>
@@ -11626,7 +11626,7 @@
       <c r="AY4" s="1"/>
       <c r="AZ4" s="1"/>
     </row>
-    <row r="5" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -11647,7 +11647,7 @@
       <c r="AY5" s="1"/>
       <c r="AZ5" s="1"/>
     </row>
-    <row r="6" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>57</v>
       </c>
@@ -11668,7 +11668,7 @@
       <c r="AY6" s="1"/>
       <c r="AZ6" s="1"/>
     </row>
-    <row r="7" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>81</v>
       </c>
@@ -11689,7 +11689,7 @@
       <c r="AY7" s="1"/>
       <c r="AZ7" s="1"/>
     </row>
-    <row r="8" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -11710,7 +11710,7 @@
       <c r="AY8" s="1"/>
       <c r="AZ8" s="1"/>
     </row>
-    <row r="9" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>86</v>
       </c>
@@ -11734,7 +11734,7 @@
       <c r="AY9" s="1"/>
       <c r="AZ9" s="1"/>
     </row>
-    <row r="10" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>82</v>
       </c>
@@ -11755,7 +11755,7 @@
       <c r="AY10" s="1"/>
       <c r="AZ10" s="1"/>
     </row>
-    <row r="11" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>97</v>
       </c>
@@ -11776,7 +11776,7 @@
       <c r="AY11" s="1"/>
       <c r="AZ11" s="1"/>
     </row>
-    <row r="12" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>68</v>
       </c>
@@ -11797,7 +11797,7 @@
       <c r="AY12" s="1"/>
       <c r="AZ12" s="1"/>
     </row>
-    <row r="13" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>96</v>
       </c>
@@ -11818,7 +11818,7 @@
       <c r="AY13" s="1"/>
       <c r="AZ13" s="1"/>
     </row>
-    <row r="14" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -11848,7 +11848,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:52" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:52" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>38</v>
       </c>
@@ -11857,10 +11857,10 @@
         <v>5.5500000000000007</v>
       </c>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C17" s="11">
         <f>SUM(F2:F13,E17)</f>
         <v>67.289999999999992</v>
@@ -11874,7 +11874,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -11908,7 +11908,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -11930,20 +11930,20 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="26" width="12.33203125" style="2" customWidth="1"/>
-    <col min="27" max="27" width="10.44140625" style="2" customWidth="1"/>
-    <col min="28" max="29" width="13.33203125" style="2" customWidth="1"/>
-    <col min="30" max="30" width="32.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="26" width="12.28515625" style="2" customWidth="1"/>
+    <col min="27" max="27" width="10.42578125" style="2" customWidth="1"/>
+    <col min="28" max="29" width="13.28515625" style="2" customWidth="1"/>
+    <col min="30" max="30" width="32.42578125" style="5" customWidth="1"/>
     <col min="31" max="31" width="23" style="5" customWidth="1"/>
-    <col min="32" max="36" width="9.109375" style="5"/>
-    <col min="37" max="16384" width="9.109375" style="2"/>
+    <col min="32" max="36" width="9.140625" style="5"/>
+    <col min="37" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -11984,7 +11984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>36</v>
       </c>
@@ -12011,7 +12011,7 @@
       <c r="AZ2" s="7"/>
       <c r="BA2" s="7"/>
     </row>
-    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>63</v>
       </c>
@@ -12038,7 +12038,7 @@
       <c r="AZ3" s="7"/>
       <c r="BA3" s="7"/>
     </row>
-    <row r="4" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>56</v>
       </c>
@@ -12059,7 +12059,7 @@
       <c r="AZ4" s="1"/>
       <c r="BA4" s="1"/>
     </row>
-    <row r="5" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -12083,7 +12083,7 @@
       <c r="AZ5" s="1"/>
       <c r="BA5" s="1"/>
     </row>
-    <row r="6" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>81</v>
       </c>
@@ -12104,7 +12104,7 @@
       <c r="AZ6" s="1"/>
       <c r="BA6" s="1"/>
     </row>
-    <row r="7" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -12125,7 +12125,7 @@
       <c r="AZ7" s="1"/>
       <c r="BA7" s="1"/>
     </row>
-    <row r="8" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -12146,7 +12146,7 @@
       <c r="AZ8" s="1"/>
       <c r="BA8" s="1"/>
     </row>
-    <row r="9" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>149</v>
       </c>
@@ -12167,7 +12167,7 @@
       <c r="AZ9" s="1"/>
       <c r="BA9" s="1"/>
     </row>
-    <row r="10" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>82</v>
       </c>
@@ -12188,7 +12188,7 @@
       <c r="AZ10" s="1"/>
       <c r="BA10" s="1"/>
     </row>
-    <row r="11" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>88</v>
       </c>
@@ -12209,7 +12209,7 @@
       <c r="AZ11" s="1"/>
       <c r="BA11" s="1"/>
     </row>
-    <row r="12" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>70</v>
       </c>
@@ -12230,7 +12230,7 @@
       <c r="AZ12" s="1"/>
       <c r="BA12" s="1"/>
     </row>
-    <row r="13" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>68</v>
       </c>
@@ -12251,7 +12251,7 @@
       <c r="AZ13" s="1"/>
       <c r="BA13" s="1"/>
     </row>
-    <row r="14" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -12282,7 +12282,7 @@
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
     </row>
-    <row r="15" spans="1:53" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>38</v>
       </c>
@@ -12291,10 +12291,10 @@
         <v>12.120000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C17" s="11">
         <f>SUM(F2:F13,E17)</f>
         <v>87.86</v>
@@ -12308,7 +12308,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -12343,7 +12343,7 @@
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -12365,20 +12365,20 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="27" width="12.33203125" style="2" customWidth="1"/>
-    <col min="28" max="28" width="10.44140625" style="2" customWidth="1"/>
-    <col min="29" max="30" width="13.33203125" style="2" customWidth="1"/>
-    <col min="31" max="31" width="32.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="27" width="12.28515625" style="2" customWidth="1"/>
+    <col min="28" max="28" width="10.42578125" style="2" customWidth="1"/>
+    <col min="29" max="30" width="13.28515625" style="2" customWidth="1"/>
+    <col min="31" max="31" width="32.42578125" style="5" customWidth="1"/>
     <col min="32" max="32" width="23" style="5" customWidth="1"/>
-    <col min="33" max="37" width="9.109375" style="5"/>
-    <col min="38" max="16384" width="9.109375" style="2"/>
+    <col min="33" max="37" width="9.140625" style="5"/>
+    <col min="38" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -12419,7 +12419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:54" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:54" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>36</v>
       </c>
@@ -12446,7 +12446,7 @@
       <c r="BA2" s="7"/>
       <c r="BB2" s="7"/>
     </row>
-    <row r="3" spans="1:54" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:54" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>63</v>
       </c>
@@ -12473,7 +12473,7 @@
       <c r="BA3" s="7"/>
       <c r="BB3" s="7"/>
     </row>
-    <row r="4" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>56</v>
       </c>
@@ -12494,7 +12494,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -12515,7 +12515,7 @@
       <c r="BA5" s="1"/>
       <c r="BB5" s="1"/>
     </row>
-    <row r="6" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>81</v>
       </c>
@@ -12536,7 +12536,7 @@
       <c r="BA6" s="1"/>
       <c r="BB6" s="1"/>
     </row>
-    <row r="7" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -12557,7 +12557,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -12578,7 +12578,7 @@
       <c r="BA8" s="1"/>
       <c r="BB8" s="1"/>
     </row>
-    <row r="9" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>86</v>
       </c>
@@ -12602,7 +12602,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -12623,7 +12623,7 @@
       <c r="BA10" s="1"/>
       <c r="BB10" s="1"/>
     </row>
-    <row r="11" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>75</v>
       </c>
@@ -12644,7 +12644,7 @@
       <c r="BA11" s="1"/>
       <c r="BB11" s="1"/>
     </row>
-    <row r="12" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>88</v>
       </c>
@@ -12665,7 +12665,7 @@
       <c r="BA12" s="1"/>
       <c r="BB12" s="1"/>
     </row>
-    <row r="13" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>68</v>
       </c>
@@ -12686,7 +12686,7 @@
       <c r="BA13" s="1"/>
       <c r="BB13" s="1"/>
     </row>
-    <row r="14" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -12718,7 +12718,7 @@
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
     </row>
-    <row r="15" spans="1:54" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:54" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>38</v>
       </c>
@@ -12727,10 +12727,10 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C17" s="11">
         <f>SUM(F2:F13,E17)</f>
         <v>82.86999999999999</v>
@@ -12744,7 +12744,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -12780,7 +12780,7 @@
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -12802,20 +12802,20 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="27" width="12.33203125" style="2" customWidth="1"/>
-    <col min="28" max="28" width="10.44140625" style="2" customWidth="1"/>
-    <col min="29" max="30" width="13.33203125" style="2" customWidth="1"/>
-    <col min="31" max="31" width="32.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="27" width="12.28515625" style="2" customWidth="1"/>
+    <col min="28" max="28" width="10.42578125" style="2" customWidth="1"/>
+    <col min="29" max="30" width="13.28515625" style="2" customWidth="1"/>
+    <col min="31" max="31" width="32.42578125" style="5" customWidth="1"/>
     <col min="32" max="32" width="23" style="5" customWidth="1"/>
-    <col min="33" max="37" width="9.109375" style="5"/>
-    <col min="38" max="16384" width="9.109375" style="2"/>
+    <col min="33" max="37" width="9.140625" style="5"/>
+    <col min="38" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -12856,7 +12856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:54" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:54" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>63</v>
       </c>
@@ -12886,7 +12886,7 @@
       <c r="BA2" s="7"/>
       <c r="BB2" s="7"/>
     </row>
-    <row r="3" spans="1:54" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:54" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>30</v>
       </c>
@@ -12916,7 +12916,7 @@
       <c r="BA3" s="7"/>
       <c r="BB3" s="7"/>
     </row>
-    <row r="4" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
@@ -12943,7 +12943,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>143</v>
       </c>
@@ -12967,7 +12967,7 @@
       <c r="BA5" s="1"/>
       <c r="BB5" s="1"/>
     </row>
-    <row r="6" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>109</v>
       </c>
@@ -12991,7 +12991,7 @@
       <c r="BA6" s="1"/>
       <c r="BB6" s="1"/>
     </row>
-    <row r="7" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>57</v>
       </c>
@@ -13015,7 +13015,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>81</v>
       </c>
@@ -13039,7 +13039,7 @@
       <c r="BA8" s="1"/>
       <c r="BB8" s="1"/>
     </row>
-    <row r="9" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>86</v>
       </c>
@@ -13063,7 +13063,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>150</v>
       </c>
@@ -13087,7 +13087,7 @@
       <c r="BA10" s="1"/>
       <c r="BB10" s="1"/>
     </row>
-    <row r="11" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>97</v>
       </c>
@@ -13111,7 +13111,7 @@
       <c r="BA11" s="1"/>
       <c r="BB11" s="1"/>
     </row>
-    <row r="12" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>135</v>
       </c>
@@ -13135,7 +13135,7 @@
       <c r="BA12" s="1"/>
       <c r="BB12" s="1"/>
     </row>
-    <row r="13" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
@@ -13159,7 +13159,7 @@
       <c r="BA13" s="1"/>
       <c r="BB13" s="1"/>
     </row>
-    <row r="14" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -13191,7 +13191,7 @@
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
     </row>
-    <row r="15" spans="1:54" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:54" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>38</v>
       </c>
@@ -13200,10 +13200,10 @@
         <v>26.58</v>
       </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C17" s="11">
         <f>SUM(F2:F13,E17)</f>
         <v>37.379999999999995</v>
@@ -13217,7 +13217,7 @@
         <v>7.47</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -13253,7 +13253,7 @@
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -13275,20 +13275,20 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="27" width="12.33203125" style="2" customWidth="1"/>
-    <col min="28" max="28" width="10.44140625" style="2" customWidth="1"/>
-    <col min="29" max="30" width="13.33203125" style="2" customWidth="1"/>
-    <col min="31" max="31" width="32.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="27" width="12.28515625" style="2" customWidth="1"/>
+    <col min="28" max="28" width="10.42578125" style="2" customWidth="1"/>
+    <col min="29" max="30" width="13.28515625" style="2" customWidth="1"/>
+    <col min="31" max="31" width="32.42578125" style="5" customWidth="1"/>
     <col min="32" max="32" width="23" style="5" customWidth="1"/>
-    <col min="33" max="37" width="9.109375" style="5"/>
-    <col min="38" max="16384" width="9.109375" style="2"/>
+    <col min="33" max="37" width="9.140625" style="5"/>
+    <col min="38" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -13329,7 +13329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:54" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:54" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>63</v>
       </c>
@@ -13359,7 +13359,7 @@
       <c r="BA2" s="7"/>
       <c r="BB2" s="7"/>
     </row>
-    <row r="3" spans="1:54" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:54" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>30</v>
       </c>
@@ -13389,7 +13389,7 @@
       <c r="BA3" s="7"/>
       <c r="BB3" s="7"/>
     </row>
-    <row r="4" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>56</v>
       </c>
@@ -13413,7 +13413,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>143</v>
       </c>
@@ -13437,7 +13437,7 @@
       <c r="BA5" s="1"/>
       <c r="BB5" s="1"/>
     </row>
-    <row r="6" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>109</v>
       </c>
@@ -13461,7 +13461,7 @@
       <c r="BA6" s="1"/>
       <c r="BB6" s="1"/>
     </row>
-    <row r="7" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>57</v>
       </c>
@@ -13485,7 +13485,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>74</v>
       </c>
@@ -13509,7 +13509,7 @@
       <c r="BA8" s="1"/>
       <c r="BB8" s="1"/>
     </row>
-    <row r="9" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>81</v>
       </c>
@@ -13533,7 +13533,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>134</v>
       </c>
@@ -13557,7 +13557,7 @@
       <c r="BA10" s="1"/>
       <c r="BB10" s="1"/>
     </row>
-    <row r="11" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>97</v>
       </c>
@@ -13581,7 +13581,7 @@
       <c r="BA11" s="1"/>
       <c r="BB11" s="1"/>
     </row>
-    <row r="12" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>135</v>
       </c>
@@ -13608,7 +13608,7 @@
       <c r="BA12" s="1"/>
       <c r="BB12" s="1"/>
     </row>
-    <row r="13" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
@@ -13632,7 +13632,7 @@
       <c r="BA13" s="1"/>
       <c r="BB13" s="1"/>
     </row>
-    <row r="14" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -13664,7 +13664,7 @@
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
     </row>
-    <row r="15" spans="1:54" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:54" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>38</v>
       </c>
@@ -13673,10 +13673,10 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C17" s="11">
         <f>SUM(F2:F13,E17)</f>
         <v>48.209999999999994</v>
@@ -13690,7 +13690,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -13726,7 +13726,7 @@
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -13748,20 +13748,20 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="27" width="12.33203125" style="2" customWidth="1"/>
-    <col min="28" max="28" width="10.44140625" style="2" customWidth="1"/>
-    <col min="29" max="30" width="13.33203125" style="2" customWidth="1"/>
-    <col min="31" max="31" width="32.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="27" width="12.28515625" style="2" customWidth="1"/>
+    <col min="28" max="28" width="10.42578125" style="2" customWidth="1"/>
+    <col min="29" max="30" width="13.28515625" style="2" customWidth="1"/>
+    <col min="31" max="31" width="32.42578125" style="5" customWidth="1"/>
     <col min="32" max="32" width="23" style="5" customWidth="1"/>
-    <col min="33" max="37" width="9.109375" style="5"/>
-    <col min="38" max="16384" width="9.109375" style="2"/>
+    <col min="33" max="37" width="9.140625" style="5"/>
+    <col min="38" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -13802,7 +13802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:54" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:54" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>63</v>
       </c>
@@ -13832,7 +13832,7 @@
       <c r="BA2" s="7"/>
       <c r="BB2" s="7"/>
     </row>
-    <row r="3" spans="1:54" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:54" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>30</v>
       </c>
@@ -13865,7 +13865,7 @@
       <c r="BA3" s="7"/>
       <c r="BB3" s="7"/>
     </row>
-    <row r="4" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>56</v>
       </c>
@@ -13889,7 +13889,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>143</v>
       </c>
@@ -13913,7 +13913,7 @@
       <c r="BA5" s="1"/>
       <c r="BB5" s="1"/>
     </row>
-    <row r="6" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>109</v>
       </c>
@@ -13937,7 +13937,7 @@
       <c r="BA6" s="1"/>
       <c r="BB6" s="1"/>
     </row>
-    <row r="7" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>139</v>
       </c>
@@ -13961,7 +13961,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>74</v>
       </c>
@@ -13985,7 +13985,7 @@
       <c r="BA8" s="1"/>
       <c r="BB8" s="1"/>
     </row>
-    <row r="9" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>81</v>
       </c>
@@ -14009,7 +14009,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>151</v>
       </c>
@@ -14033,7 +14033,7 @@
       <c r="BA10" s="1"/>
       <c r="BB10" s="1"/>
     </row>
-    <row r="11" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>97</v>
       </c>
@@ -14057,7 +14057,7 @@
       <c r="BA11" s="1"/>
       <c r="BB11" s="1"/>
     </row>
-    <row r="12" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>92</v>
       </c>
@@ -14081,7 +14081,7 @@
       <c r="BA12" s="1"/>
       <c r="BB12" s="1"/>
     </row>
-    <row r="13" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>147</v>
       </c>
@@ -14105,7 +14105,7 @@
       <c r="BA13" s="1"/>
       <c r="BB13" s="1"/>
     </row>
-    <row r="14" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -14137,7 +14137,7 @@
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
     </row>
-    <row r="15" spans="1:54" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:54" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>38</v>
       </c>
@@ -14146,10 +14146,10 @@
         <v>45.349999999999994</v>
       </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C17" s="11">
         <f>SUM(F2:F13,E17)</f>
         <v>54.31</v>
@@ -14163,7 +14163,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -14199,7 +14199,7 @@
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -14217,24 +14217,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3987540B-C684-4C94-9C5C-A9DFD667490F}">
   <dimension ref="A1:BB20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="27" width="12.33203125" style="2" customWidth="1"/>
-    <col min="28" max="28" width="10.44140625" style="2" customWidth="1"/>
-    <col min="29" max="30" width="13.33203125" style="2" customWidth="1"/>
-    <col min="31" max="31" width="32.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="27" width="12.28515625" style="2" customWidth="1"/>
+    <col min="28" max="28" width="10.42578125" style="2" customWidth="1"/>
+    <col min="29" max="30" width="13.28515625" style="2" customWidth="1"/>
+    <col min="31" max="31" width="32.42578125" style="5" customWidth="1"/>
     <col min="32" max="32" width="23" style="5" customWidth="1"/>
-    <col min="33" max="37" width="9.109375" style="5"/>
-    <col min="38" max="16384" width="9.109375" style="2"/>
+    <col min="33" max="37" width="9.140625" style="5"/>
+    <col min="38" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -14275,7 +14275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:54" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:54" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>63</v>
       </c>
@@ -14305,7 +14305,7 @@
       <c r="BA2" s="7"/>
       <c r="BB2" s="7"/>
     </row>
-    <row r="3" spans="1:54" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:54" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>30</v>
       </c>
@@ -14335,7 +14335,7 @@
       <c r="BA3" s="7"/>
       <c r="BB3" s="7"/>
     </row>
-    <row r="4" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>56</v>
       </c>
@@ -14359,7 +14359,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>109</v>
       </c>
@@ -14383,7 +14383,7 @@
       <c r="BA5" s="1"/>
       <c r="BB5" s="1"/>
     </row>
-    <row r="6" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>74</v>
       </c>
@@ -14407,7 +14407,7 @@
       <c r="BA6" s="1"/>
       <c r="BB6" s="1"/>
     </row>
-    <row r="7" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>81</v>
       </c>
@@ -14431,7 +14431,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>84</v>
       </c>
@@ -14455,7 +14455,7 @@
       <c r="BA8" s="1"/>
       <c r="BB8" s="1"/>
     </row>
-    <row r="9" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>86</v>
       </c>
@@ -14479,7 +14479,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>95</v>
       </c>
@@ -14503,7 +14503,7 @@
       <c r="BA10" s="1"/>
       <c r="BB10" s="1"/>
     </row>
-    <row r="11" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>138</v>
       </c>
@@ -14530,7 +14530,7 @@
       <c r="BA11" s="1"/>
       <c r="BB11" s="1"/>
     </row>
-    <row r="12" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>97</v>
       </c>
@@ -14554,7 +14554,7 @@
       <c r="BA12" s="1"/>
       <c r="BB12" s="1"/>
     </row>
-    <row r="13" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>92</v>
       </c>
@@ -14578,7 +14578,7 @@
       <c r="BA13" s="1"/>
       <c r="BB13" s="1"/>
     </row>
-    <row r="14" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -14610,7 +14610,7 @@
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
     </row>
-    <row r="15" spans="1:54" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:54" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>38</v>
       </c>
@@ -14619,10 +14619,10 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C17" s="11">
         <f>SUM(F2:F13,E17)</f>
         <v>54.470000000000006</v>
@@ -14636,7 +14636,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -14672,7 +14672,7 @@
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -14690,18 +14690,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED218231-7B98-4563-A8B0-FB03C9DEE276}">
   <dimension ref="B3:AM5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AM5" sqref="B5:AM5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
@@ -14817,7 +14817,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B5">
         <f>'rodada 01'!$C15</f>
         <v>46.17</v>
@@ -14984,20 +14984,20 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="2" customWidth="1"/>
-    <col min="6" max="7" width="13.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="32.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="2" customWidth="1"/>
+    <col min="6" max="7" width="13.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="32.42578125" style="5" customWidth="1"/>
     <col min="9" max="9" width="23" style="5" customWidth="1"/>
-    <col min="10" max="14" width="9.109375" style="5"/>
-    <col min="15" max="16384" width="9.109375" style="2"/>
+    <col min="10" max="14" width="9.140625" style="5"/>
+    <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -15038,7 +15038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>118</v>
       </c>
@@ -15065,7 +15065,7 @@
       <c r="AD2" s="7"/>
       <c r="AE2" s="7"/>
     </row>
-    <row r="3" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>78</v>
       </c>
@@ -15092,7 +15092,7 @@
       <c r="AD3" s="7"/>
       <c r="AE3" s="7"/>
     </row>
-    <row r="4" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>91</v>
       </c>
@@ -15114,7 +15114,7 @@
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
     </row>
-    <row r="5" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>42</v>
       </c>
@@ -15136,7 +15136,7 @@
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
     </row>
-    <row r="6" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>99</v>
       </c>
@@ -15158,7 +15158,7 @@
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
     </row>
-    <row r="7" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>41</v>
       </c>
@@ -15180,7 +15180,7 @@
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
     </row>
-    <row r="8" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
@@ -15205,7 +15205,7 @@
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
     </row>
-    <row r="9" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>64</v>
       </c>
@@ -15227,7 +15227,7 @@
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
     </row>
-    <row r="10" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>43</v>
       </c>
@@ -15249,7 +15249,7 @@
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
     </row>
-    <row r="11" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>37</v>
       </c>
@@ -15271,7 +15271,7 @@
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
     </row>
-    <row r="12" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>66</v>
       </c>
@@ -15293,7 +15293,7 @@
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
     </row>
-    <row r="13" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>119</v>
       </c>
@@ -15315,7 +15315,7 @@
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
     </row>
-    <row r="14" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -15324,7 +15324,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:31" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>38</v>
       </c>
@@ -15333,10 +15333,10 @@
         <v>29.73</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C17" s="11">
         <f>SUM(F2:F13,E17)</f>
         <v>62.650000000000006</v>
@@ -15350,7 +15350,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -15363,7 +15363,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -15385,20 +15385,20 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="2" customWidth="1"/>
-    <col min="6" max="7" width="13.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="32.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="2" customWidth="1"/>
+    <col min="6" max="7" width="13.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="32.42578125" style="5" customWidth="1"/>
     <col min="9" max="9" width="23" style="5" customWidth="1"/>
-    <col min="10" max="14" width="9.109375" style="5"/>
-    <col min="15" max="16384" width="9.109375" style="2"/>
+    <col min="10" max="14" width="9.140625" style="5"/>
+    <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -15439,7 +15439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>44</v>
       </c>
@@ -15472,7 +15472,7 @@
       <c r="AD2" s="7"/>
       <c r="AE2" s="7"/>
     </row>
-    <row r="3" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>120</v>
       </c>
@@ -15502,7 +15502,7 @@
       <c r="AD3" s="7"/>
       <c r="AE3" s="7"/>
     </row>
-    <row r="4" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>121</v>
       </c>
@@ -15526,7 +15526,7 @@
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
     </row>
-    <row r="5" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
@@ -15550,7 +15550,7 @@
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
     </row>
-    <row r="6" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>122</v>
       </c>
@@ -15574,7 +15574,7 @@
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
     </row>
-    <row r="7" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>123</v>
       </c>
@@ -15598,7 +15598,7 @@
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
     </row>
-    <row r="8" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>64</v>
       </c>
@@ -15622,7 +15622,7 @@
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
     </row>
-    <row r="9" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>90</v>
       </c>
@@ -15646,7 +15646,7 @@
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
     </row>
-    <row r="10" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>43</v>
       </c>
@@ -15670,7 +15670,7 @@
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
     </row>
-    <row r="11" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>124</v>
       </c>
@@ -15694,7 +15694,7 @@
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
     </row>
-    <row r="12" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>125</v>
       </c>
@@ -15718,7 +15718,7 @@
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
     </row>
-    <row r="13" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>113</v>
       </c>
@@ -15742,7 +15742,7 @@
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
     </row>
-    <row r="14" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -15751,7 +15751,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:31" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>38</v>
       </c>
@@ -15760,10 +15760,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C17" s="11">
         <f>SUM(F2:F13,E17)</f>
         <v>27.17</v>
@@ -15777,7 +15777,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -15790,7 +15790,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -15812,20 +15812,20 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="13.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="32.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="13.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="32.42578125" style="5" customWidth="1"/>
     <col min="10" max="10" width="23" style="5" customWidth="1"/>
-    <col min="11" max="15" width="9.109375" style="5"/>
-    <col min="16" max="16384" width="9.109375" style="2"/>
+    <col min="11" max="15" width="9.140625" style="5"/>
+    <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -15866,7 +15866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>44</v>
       </c>
@@ -15893,7 +15893,7 @@
       <c r="AE2" s="7"/>
       <c r="AF2" s="7"/>
     </row>
-    <row r="3" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>67</v>
       </c>
@@ -15920,7 +15920,7 @@
       <c r="AE3" s="7"/>
       <c r="AF3" s="7"/>
     </row>
-    <row r="4" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>126</v>
       </c>
@@ -15942,7 +15942,7 @@
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
     </row>
-    <row r="5" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>41</v>
       </c>
@@ -15964,7 +15964,7 @@
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
     </row>
-    <row r="6" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
@@ -15989,7 +15989,7 @@
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
     </row>
-    <row r="7" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>45</v>
       </c>
@@ -16011,7 +16011,7 @@
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
     </row>
-    <row r="8" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>64</v>
       </c>
@@ -16033,7 +16033,7 @@
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
     </row>
-    <row r="9" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>72</v>
       </c>
@@ -16055,7 +16055,7 @@
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
     </row>
-    <row r="10" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>43</v>
       </c>
@@ -16077,7 +16077,7 @@
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
     </row>
-    <row r="11" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>66</v>
       </c>
@@ -16099,7 +16099,7 @@
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
     </row>
-    <row r="12" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>104</v>
       </c>
@@ -16121,7 +16121,7 @@
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
     </row>
-    <row r="13" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>68</v>
       </c>
@@ -16143,7 +16143,7 @@
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
     </row>
-    <row r="14" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -16153,7 +16153,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:32" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>38</v>
       </c>
@@ -16162,10 +16162,10 @@
         <v>72.53</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C17" s="11">
         <f>SUM(F2:F13,E17)</f>
         <v>85.4</v>
@@ -16179,7 +16179,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -16193,7 +16193,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -16215,20 +16215,20 @@
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="12.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="2" customWidth="1"/>
-    <col min="8" max="9" width="13.33203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="32.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="2" customWidth="1"/>
+    <col min="8" max="9" width="13.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="32.42578125" style="5" customWidth="1"/>
     <col min="11" max="11" width="23" style="5" customWidth="1"/>
-    <col min="12" max="16" width="9.109375" style="5"/>
-    <col min="17" max="16384" width="9.109375" style="2"/>
+    <col min="12" max="16" width="9.140625" style="5"/>
+    <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -16269,7 +16269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>67</v>
       </c>
@@ -16296,7 +16296,7 @@
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
     </row>
-    <row r="3" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>127</v>
       </c>
@@ -16323,7 +16323,7 @@
       <c r="AF3" s="7"/>
       <c r="AG3" s="7"/>
     </row>
-    <row r="4" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>69</v>
       </c>
@@ -16345,7 +16345,7 @@
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
     </row>
-    <row r="5" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -16367,7 +16367,7 @@
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
     </row>
-    <row r="6" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>128</v>
       </c>
@@ -16389,7 +16389,7 @@
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
     </row>
-    <row r="7" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
@@ -16414,7 +16414,7 @@
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
     </row>
-    <row r="8" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>45</v>
       </c>
@@ -16436,7 +16436,7 @@
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
     </row>
-    <row r="9" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>129</v>
       </c>
@@ -16458,7 +16458,7 @@
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
     </row>
-    <row r="10" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>130</v>
       </c>
@@ -16480,7 +16480,7 @@
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
     </row>
-    <row r="11" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>66</v>
       </c>
@@ -16502,7 +16502,7 @@
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
     </row>
-    <row r="12" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>104</v>
       </c>
@@ -16524,7 +16524,7 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
     </row>
-    <row r="13" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>68</v>
       </c>
@@ -16546,7 +16546,7 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
     </row>
-    <row r="14" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -16557,7 +16557,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>38</v>
       </c>
@@ -16566,10 +16566,10 @@
         <v>63.04</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C17" s="11">
         <f>SUM(F2:F13,E17)</f>
         <v>104.38000000000001</v>
@@ -16583,7 +16583,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -16598,7 +16598,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -16620,20 +16620,20 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="12.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="2" customWidth="1"/>
-    <col min="8" max="9" width="13.33203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="32.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="2" customWidth="1"/>
+    <col min="8" max="9" width="13.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="32.42578125" style="5" customWidth="1"/>
     <col min="11" max="11" width="23" style="5" customWidth="1"/>
-    <col min="12" max="16" width="9.109375" style="5"/>
-    <col min="17" max="16384" width="9.109375" style="2"/>
+    <col min="12" max="16" width="9.140625" style="5"/>
+    <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -16674,7 +16674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>131</v>
       </c>
@@ -16704,7 +16704,7 @@
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
     </row>
-    <row r="3" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>120</v>
       </c>
@@ -16734,7 +16734,7 @@
       <c r="AF3" s="7"/>
       <c r="AG3" s="7"/>
     </row>
-    <row r="4" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -16761,7 +16761,7 @@
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
     </row>
-    <row r="5" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>64</v>
       </c>
@@ -16785,7 +16785,7 @@
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
     </row>
-    <row r="6" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>132</v>
       </c>
@@ -16809,7 +16809,7 @@
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
     </row>
-    <row r="7" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
@@ -16833,7 +16833,7 @@
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
     </row>
-    <row r="8" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>90</v>
       </c>
@@ -16857,7 +16857,7 @@
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
     </row>
-    <row r="9" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>86</v>
       </c>
@@ -16881,7 +16881,7 @@
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
     </row>
-    <row r="10" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>43</v>
       </c>
@@ -16905,7 +16905,7 @@
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
     </row>
-    <row r="11" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>111</v>
       </c>
@@ -16929,7 +16929,7 @@
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
     </row>
-    <row r="12" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>133</v>
       </c>
@@ -16953,7 +16953,7 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
     </row>
-    <row r="13" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>119</v>
       </c>
@@ -16977,7 +16977,7 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
     </row>
-    <row r="14" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -16988,7 +16988,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>38</v>
       </c>
@@ -16997,10 +16997,10 @@
         <v>54.08</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C17" s="11">
         <f>SUM(F2:F13,E17)</f>
         <v>57.489999999999995</v>
@@ -17014,7 +17014,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -17029,7 +17029,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -17051,20 +17051,20 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="12.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" style="2" customWidth="1"/>
-    <col min="9" max="10" width="13.33203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="32.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="12.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="2" customWidth="1"/>
+    <col min="9" max="10" width="13.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="32.42578125" style="5" customWidth="1"/>
     <col min="12" max="12" width="23" style="5" customWidth="1"/>
-    <col min="13" max="17" width="9.109375" style="5"/>
-    <col min="18" max="16384" width="9.109375" style="2"/>
+    <col min="13" max="17" width="9.140625" style="5"/>
+    <col min="18" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -17105,7 +17105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>47</v>
       </c>
@@ -17132,7 +17132,7 @@
       <c r="AG2" s="7"/>
       <c r="AH2" s="7"/>
     </row>
-    <row r="3" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>44</v>
       </c>
@@ -17159,7 +17159,7 @@
       <c r="AG3" s="7"/>
       <c r="AH3" s="7"/>
     </row>
-    <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -17181,7 +17181,7 @@
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
     </row>
-    <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
@@ -17203,7 +17203,7 @@
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
     </row>
-    <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>71</v>
       </c>
@@ -17225,7 +17225,7 @@
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
     </row>
-    <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>64</v>
       </c>
@@ -17247,7 +17247,7 @@
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
     </row>
-    <row r="8" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -17269,7 +17269,7 @@
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
     </row>
-    <row r="9" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>93</v>
       </c>
@@ -17291,7 +17291,7 @@
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
     </row>
-    <row r="10" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>134</v>
       </c>
@@ -17313,7 +17313,7 @@
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
     </row>
-    <row r="11" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>87</v>
       </c>
@@ -17338,7 +17338,7 @@
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
     </row>
-    <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>68</v>
       </c>
@@ -17360,7 +17360,7 @@
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
     </row>
-    <row r="13" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>135</v>
       </c>
@@ -17382,7 +17382,7 @@
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
     </row>
-    <row r="14" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -17394,7 +17394,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:34" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>38</v>
       </c>
@@ -17403,10 +17403,10 @@
         <v>33.22</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C17" s="11">
         <f>SUM(F2:F13,E17)</f>
         <v>55.419999999999995</v>
@@ -17420,7 +17420,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -17436,7 +17436,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
